--- a/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9889293406784191</v>
+        <v>0.9999221236757964</v>
       </c>
       <c r="D2">
-        <v>1.009973901093318</v>
+        <v>1.021727866583558</v>
       </c>
       <c r="E2">
-        <v>0.9963214991581464</v>
+        <v>1.005762728744775</v>
       </c>
       <c r="F2">
-        <v>1.002418616640766</v>
+        <v>1.021441438391428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041716486657962</v>
+        <v>1.047543684844398</v>
       </c>
       <c r="J2">
-        <v>1.011446291574158</v>
+        <v>1.022105164260819</v>
       </c>
       <c r="K2">
-        <v>1.021296010668043</v>
+        <v>1.03289257458875</v>
       </c>
       <c r="L2">
-        <v>1.007832320350366</v>
+        <v>1.017142359204818</v>
       </c>
       <c r="M2">
-        <v>1.013844358820616</v>
+        <v>1.032609928041201</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9985183610865157</v>
+        <v>1.007454035356415</v>
       </c>
       <c r="D3">
-        <v>1.017432675362653</v>
+        <v>1.027751120223672</v>
       </c>
       <c r="E3">
-        <v>1.004717507171448</v>
+        <v>1.012047340157444</v>
       </c>
       <c r="F3">
-        <v>1.011591826506279</v>
+        <v>1.028338446476529</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045261384782713</v>
+        <v>1.050108371178751</v>
       </c>
       <c r="J3">
-        <v>1.01904949872764</v>
+        <v>1.027743538050931</v>
       </c>
       <c r="K3">
-        <v>1.027847256875226</v>
+        <v>1.038040818670561</v>
       </c>
       <c r="L3">
-        <v>1.015290380381943</v>
+        <v>1.02252835916117</v>
       </c>
       <c r="M3">
-        <v>1.022078505479637</v>
+        <v>1.038621130062313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004481472929837</v>
+        <v>1.012180054817222</v>
       </c>
       <c r="D4">
-        <v>1.022073720903741</v>
+        <v>1.031532096268792</v>
       </c>
       <c r="E4">
-        <v>1.009940086846916</v>
+        <v>1.015996624631433</v>
       </c>
       <c r="F4">
-        <v>1.017304428551398</v>
+        <v>1.032671902267671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047449397651685</v>
+        <v>1.051701697589432</v>
       </c>
       <c r="J4">
-        <v>1.023771232751504</v>
+        <v>1.031277243129823</v>
       </c>
       <c r="K4">
-        <v>1.031912839663894</v>
+        <v>1.041264287661586</v>
       </c>
       <c r="L4">
-        <v>1.019920006026271</v>
+        <v>1.025905743290688</v>
       </c>
       <c r="M4">
-        <v>1.027198395829554</v>
+        <v>1.042391370847321</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006934731262945</v>
+        <v>1.01413352818102</v>
       </c>
       <c r="D5">
-        <v>1.023983543159859</v>
+        <v>1.033095208409594</v>
       </c>
       <c r="E5">
-        <v>1.012088902707672</v>
+        <v>1.017630359635274</v>
       </c>
       <c r="F5">
-        <v>1.019656446450891</v>
+        <v>1.034464408218172</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048345527380321</v>
+        <v>1.052356394483084</v>
       </c>
       <c r="J5">
-        <v>1.025712147312397</v>
+        <v>1.032736805792892</v>
       </c>
       <c r="K5">
-        <v>1.03358330881412</v>
+        <v>1.042594950016571</v>
       </c>
       <c r="L5">
-        <v>1.02182258493416</v>
+        <v>1.027301173173076</v>
       </c>
       <c r="M5">
-        <v>1.029304483799572</v>
+        <v>1.043949306119059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007343612530497</v>
+        <v>1.01445962451924</v>
       </c>
       <c r="D6">
-        <v>1.024301873637249</v>
+        <v>1.033356153681458</v>
       </c>
       <c r="E6">
-        <v>1.012447052705563</v>
+        <v>1.017903156572497</v>
       </c>
       <c r="F6">
-        <v>1.02004855811198</v>
+        <v>1.034763707526688</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048494644560948</v>
+        <v>1.05246545284479</v>
       </c>
       <c r="J6">
-        <v>1.026035538520894</v>
+        <v>1.032980387698983</v>
       </c>
       <c r="K6">
-        <v>1.033861594975961</v>
+        <v>1.042816974687047</v>
       </c>
       <c r="L6">
-        <v>1.022139560844334</v>
+        <v>1.027534077438812</v>
       </c>
       <c r="M6">
-        <v>1.029655484273176</v>
+        <v>1.044209344321524</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004514459024591</v>
+        <v>1.012206285732026</v>
       </c>
       <c r="D7">
-        <v>1.022099398401138</v>
+        <v>1.031553084565824</v>
       </c>
       <c r="E7">
-        <v>1.009968978738618</v>
+        <v>1.016018557046517</v>
       </c>
       <c r="F7">
-        <v>1.017336046308251</v>
+        <v>1.032695966732133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047461462953822</v>
+        <v>1.051710504266085</v>
       </c>
       <c r="J7">
-        <v>1.023797336542468</v>
+        <v>1.031296846236623</v>
       </c>
       <c r="K7">
-        <v>1.03193530911498</v>
+        <v>1.041282162577339</v>
       </c>
       <c r="L7">
-        <v>1.019945596112303</v>
+        <v>1.025924483335104</v>
       </c>
       <c r="M7">
-        <v>1.027226715108346</v>
+        <v>1.042412292529776</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9922227218725743</v>
+        <v>1.002499395086168</v>
       </c>
       <c r="D8">
-        <v>1.01253496434371</v>
+        <v>1.023788496818876</v>
       </c>
       <c r="E8">
-        <v>0.9992047734915802</v>
+        <v>1.00791189060559</v>
       </c>
       <c r="F8">
-        <v>1.005567396089163</v>
+        <v>1.023800166587077</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042937433582339</v>
+        <v>1.04842458627296</v>
       </c>
       <c r="J8">
-        <v>1.014058957235745</v>
+        <v>1.024035342803366</v>
       </c>
       <c r="K8">
-        <v>1.023547776958692</v>
+        <v>1.034655597740437</v>
       </c>
       <c r="L8">
-        <v>1.01039552741113</v>
+        <v>1.018985746325865</v>
       </c>
       <c r="M8">
-        <v>1.016672477897751</v>
+        <v>1.03466711848514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9684926086247317</v>
+        <v>0.984164089627436</v>
       </c>
       <c r="D9">
-        <v>0.9941016143032441</v>
+        <v>1.009140834849348</v>
       </c>
       <c r="E9">
-        <v>0.978441201426382</v>
+        <v>0.9926522960746528</v>
       </c>
       <c r="F9">
-        <v>0.9829205716882132</v>
+        <v>1.007049438478527</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034071456069211</v>
+        <v>1.042091959888394</v>
       </c>
       <c r="J9">
-        <v>0.9952092283671461</v>
+        <v>1.010288720775894</v>
       </c>
       <c r="K9">
-        <v>1.007291119130685</v>
+        <v>1.0220873290223</v>
       </c>
       <c r="L9">
-        <v>0.9918940154373908</v>
+        <v>1.005865720269265</v>
       </c>
       <c r="M9">
-        <v>0.99629696517356</v>
+        <v>1.020029169549393</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9509114712680923</v>
+        <v>0.9709551553749221</v>
       </c>
       <c r="D10">
-        <v>0.9804822163380906</v>
+        <v>0.9986107525519303</v>
       </c>
       <c r="E10">
-        <v>0.9630806426381625</v>
+        <v>0.981703414460259</v>
       </c>
       <c r="F10">
-        <v>0.9662036801398509</v>
+        <v>0.9950262175165737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027419260691403</v>
+        <v>1.03744958381124</v>
       </c>
       <c r="J10">
-        <v>0.9812177929003838</v>
+        <v>1.00037049235845</v>
       </c>
       <c r="K10">
-        <v>0.9952130449784626</v>
+        <v>1.01300513567595</v>
       </c>
       <c r="L10">
-        <v>0.9781500933147469</v>
+        <v>0.9964110687344452</v>
       </c>
       <c r="M10">
-        <v>0.9812111790638366</v>
+        <v>1.009485859612727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9427747835148559</v>
+        <v>0.9649600173681462</v>
       </c>
       <c r="D11">
-        <v>0.9741923989421933</v>
+        <v>0.9938391773014119</v>
       </c>
       <c r="E11">
-        <v>0.9559801329178312</v>
+        <v>0.9767466749121186</v>
       </c>
       <c r="F11">
-        <v>0.9584848205028398</v>
+        <v>0.9895819087936829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024322674249932</v>
+        <v>1.035324887572692</v>
       </c>
       <c r="J11">
-        <v>0.9747384273639038</v>
+        <v>0.9958668161340869</v>
       </c>
       <c r="K11">
-        <v>0.9896179910669506</v>
+        <v>1.008878220518883</v>
       </c>
       <c r="L11">
-        <v>0.9717828500689996</v>
+        <v>0.9921208545917997</v>
       </c>
       <c r="M11">
-        <v>0.9742345477395645</v>
+        <v>1.004703006227615</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9396623198776883</v>
+        <v>0.9626875941896351</v>
       </c>
       <c r="D12">
-        <v>0.971788868562108</v>
+        <v>0.9920319327941781</v>
       </c>
       <c r="E12">
-        <v>0.9532656288737488</v>
+        <v>0.9748699531986089</v>
       </c>
       <c r="F12">
-        <v>0.955535199449287</v>
+        <v>0.9875203897184217</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023135680512183</v>
+        <v>1.034517016113377</v>
       </c>
       <c r="J12">
-        <v>0.972259553774334</v>
+        <v>0.9941595529303563</v>
       </c>
       <c r="K12">
-        <v>0.9874772701037553</v>
+        <v>1.007313397277253</v>
       </c>
       <c r="L12">
-        <v>0.9693465114305833</v>
+        <v>0.9904949788339737</v>
       </c>
       <c r="M12">
-        <v>0.971566907510375</v>
+        <v>1.002890649560782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9403342430284154</v>
+        <v>0.9631771716115785</v>
       </c>
       <c r="D13">
-        <v>0.9723076268969409</v>
+        <v>0.9924212238014932</v>
       </c>
       <c r="E13">
-        <v>0.9538515620117843</v>
+        <v>0.9752741811357711</v>
       </c>
       <c r="F13">
-        <v>0.9561718261016962</v>
+        <v>0.9879644302275945</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023392038454448</v>
+        <v>1.034691177519454</v>
       </c>
       <c r="J13">
-        <v>0.9727947091715405</v>
+        <v>0.9945273758381923</v>
       </c>
       <c r="K13">
-        <v>0.9879394287078812</v>
+        <v>1.007650548565395</v>
       </c>
       <c r="L13">
-        <v>0.9698725000582074</v>
+        <v>0.9908452456400905</v>
       </c>
       <c r="M13">
-        <v>0.9721427476813501</v>
+        <v>1.003281080492961</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9425194198560523</v>
+        <v>0.9647731337354518</v>
       </c>
       <c r="D14">
-        <v>0.9739951473549682</v>
+        <v>0.9936905201638986</v>
       </c>
       <c r="E14">
-        <v>0.9557573856676034</v>
+        <v>0.9765922898123001</v>
       </c>
       <c r="F14">
-        <v>0.958242754317726</v>
+        <v>0.9894123256895083</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02422533553963</v>
+        <v>1.035258498569964</v>
       </c>
       <c r="J14">
-        <v>0.9745350529600501</v>
+        <v>0.9957264137069235</v>
       </c>
       <c r="K14">
-        <v>0.9894423625062546</v>
+        <v>1.008749539594655</v>
       </c>
       <c r="L14">
-        <v>0.9715829725464826</v>
+        <v>0.9919871357064158</v>
       </c>
       <c r="M14">
-        <v>0.9740156561956123</v>
+        <v>1.004553945910466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9438534524524591</v>
+        <v>0.9657502869962026</v>
       </c>
       <c r="D15">
-        <v>0.9750257022053157</v>
+        <v>0.9944678577037419</v>
       </c>
       <c r="E15">
-        <v>0.9569210952693905</v>
+        <v>0.9773996055696623</v>
       </c>
       <c r="F15">
-        <v>0.9595074443220265</v>
+        <v>0.9902991074004309</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024733738819576</v>
+        <v>1.035605523505423</v>
       </c>
       <c r="J15">
-        <v>0.9755974774905277</v>
+        <v>0.9964605259656216</v>
       </c>
       <c r="K15">
-        <v>0.9903598370663761</v>
+        <v>1.009422349178337</v>
       </c>
       <c r="L15">
-        <v>0.9726271149336769</v>
+        <v>0.9926863213454556</v>
       </c>
       <c r="M15">
-        <v>0.9751592020723542</v>
+        <v>1.005333357260496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9514395164342511</v>
+        <v>0.9713468846503194</v>
       </c>
       <c r="D16">
-        <v>0.9808907154149644</v>
+        <v>0.9989227113450486</v>
       </c>
       <c r="E16">
-        <v>0.9635416425075631</v>
+        <v>0.982027571235693</v>
       </c>
       <c r="F16">
-        <v>0.9667050016699824</v>
+        <v>0.9953822340248444</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027619868995087</v>
+        <v>1.037588059969095</v>
       </c>
       <c r="J16">
-        <v>0.9816382190075443</v>
+        <v>1.000664736261793</v>
       </c>
       <c r="K16">
-        <v>0.9955760625385234</v>
+        <v>1.013274708822579</v>
       </c>
       <c r="L16">
-        <v>0.9785631940353831</v>
+        <v>0.9966914293169087</v>
       </c>
       <c r="M16">
-        <v>0.9816640700035069</v>
+        <v>1.009798442664021</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9560504357196697</v>
+        <v>0.9747809398646654</v>
       </c>
       <c r="D17">
-        <v>0.9844592848559246</v>
+        <v>1.001658360884277</v>
       </c>
       <c r="E17">
-        <v>0.9675680950179421</v>
+        <v>0.9848707036241793</v>
       </c>
       <c r="F17">
-        <v>0.971084590503662</v>
+        <v>0.9985046668897106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029369617916801</v>
+        <v>1.038800022434276</v>
       </c>
       <c r="J17">
-        <v>0.9853089775144321</v>
+        <v>1.003243975742812</v>
       </c>
       <c r="K17">
-        <v>0.9987453986939608</v>
+        <v>1.015637375372957</v>
       </c>
       <c r="L17">
-        <v>0.9821697168849423</v>
+        <v>0.9991493083574434</v>
       </c>
       <c r="M17">
-        <v>0.9856193457601183</v>
+        <v>1.012538965609308</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9586902380683086</v>
+        <v>0.9767576858556156</v>
       </c>
       <c r="D18">
-        <v>0.9865035341496281</v>
+        <v>1.003233790231204</v>
       </c>
       <c r="E18">
-        <v>0.9698740456122622</v>
+        <v>0.9865084665040514</v>
       </c>
       <c r="F18">
-        <v>0.9735935834372927</v>
+        <v>1.000303206938722</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030369695253442</v>
+        <v>1.039495998783774</v>
       </c>
       <c r="J18">
-        <v>0.9874101382352529</v>
+        <v>1.004728457760881</v>
       </c>
       <c r="K18">
-        <v>1.000559373157059</v>
+        <v>1.016996936737022</v>
       </c>
       <c r="L18">
-        <v>0.9842338760398724</v>
+        <v>1.000564217321081</v>
       </c>
       <c r="M18">
-        <v>0.9878842442624012</v>
+        <v>1.014116708687677</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9595822270121646</v>
+        <v>0.9774273647254159</v>
       </c>
       <c r="D19">
-        <v>0.9871944778688584</v>
+        <v>1.003767625068108</v>
       </c>
       <c r="E19">
-        <v>0.9706533468484633</v>
+        <v>0.9870634980097552</v>
       </c>
       <c r="F19">
-        <v>0.9744416396513488</v>
+        <v>1.000912706666412</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030707331931845</v>
+        <v>1.03973149418553</v>
       </c>
       <c r="J19">
-        <v>0.988120048154396</v>
+        <v>1.005231329273237</v>
       </c>
       <c r="K19">
-        <v>1.001172221376296</v>
+        <v>1.017457443645879</v>
       </c>
       <c r="L19">
-        <v>0.9849312445723392</v>
+        <v>1.001043566995448</v>
       </c>
       <c r="M19">
-        <v>0.9886496233941511</v>
+        <v>1.014651245231906</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9555609401875333</v>
+        <v>0.9744152447724715</v>
       </c>
       <c r="D20">
-        <v>0.9840803169037445</v>
+        <v>1.001366964480282</v>
       </c>
       <c r="E20">
-        <v>0.9671405650730033</v>
+        <v>0.9845678133464153</v>
       </c>
       <c r="F20">
-        <v>0.9706194811134313</v>
+        <v>0.9981720333013896</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029184037416589</v>
+        <v>1.038671131923802</v>
       </c>
       <c r="J20">
-        <v>0.9849193285831774</v>
+        <v>1.002969331088376</v>
       </c>
       <c r="K20">
-        <v>0.9984089924989656</v>
+        <v>1.015385819977505</v>
       </c>
       <c r="L20">
-        <v>0.9817869106943661</v>
+        <v>0.9988875576577294</v>
       </c>
       <c r="M20">
-        <v>0.9851994036474583</v>
+        <v>1.012247101635692</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9418785319562961</v>
+        <v>0.964304456725367</v>
       </c>
       <c r="D21">
-        <v>0.9735001449355095</v>
+        <v>0.9933177329099556</v>
       </c>
       <c r="E21">
-        <v>0.9551983822382923</v>
+        <v>0.9762051489369161</v>
       </c>
       <c r="F21">
-        <v>0.9576352887488089</v>
+        <v>0.9889870706599817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023981004918102</v>
+        <v>1.035091964619307</v>
       </c>
       <c r="J21">
-        <v>0.9740246377388863</v>
+        <v>0.9953743025944705</v>
       </c>
       <c r="K21">
-        <v>0.9890015795906301</v>
+        <v>1.008426818500551</v>
       </c>
       <c r="L21">
-        <v>0.9710813278359974</v>
+        <v>0.9916517936538798</v>
       </c>
       <c r="M21">
-        <v>0.9734663209737184</v>
+        <v>1.004180133922465</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9327467550806876</v>
+        <v>0.9576812870988827</v>
       </c>
       <c r="D22">
-        <v>0.966453637952451</v>
+        <v>0.9880533068867441</v>
       </c>
       <c r="E22">
-        <v>0.9472376754857184</v>
+        <v>0.9707395354269923</v>
       </c>
       <c r="F22">
-        <v>0.9489874729924709</v>
+        <v>0.9829828829393839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020493974457673</v>
+        <v>1.032732736085843</v>
       </c>
       <c r="J22">
-        <v>0.9667513695321021</v>
+        <v>0.9903981940022448</v>
       </c>
       <c r="K22">
-        <v>0.9827202916304694</v>
+        <v>1.003865204125853</v>
       </c>
       <c r="L22">
-        <v>0.9639321952361368</v>
+        <v>0.9869138206146364</v>
       </c>
       <c r="M22">
-        <v>0.9656420741371241</v>
+        <v>0.9988991615923466</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9376423330468577</v>
+        <v>0.961219126765203</v>
       </c>
       <c r="D23">
-        <v>0.9702297391824207</v>
+        <v>0.9908644944453364</v>
       </c>
       <c r="E23">
-        <v>0.9515044150688922</v>
+        <v>0.9736578134671992</v>
       </c>
       <c r="F23">
-        <v>0.95362179501467</v>
+        <v>0.9861888362963218</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022364652153322</v>
+        <v>1.033994268420364</v>
       </c>
       <c r="J23">
-        <v>0.9706506945465021</v>
+        <v>0.993056270310989</v>
       </c>
       <c r="K23">
-        <v>0.9860878479849563</v>
+        <v>1.006302061708557</v>
       </c>
       <c r="L23">
-        <v>0.9677651592200031</v>
+        <v>0.9894444261553497</v>
       </c>
       <c r="M23">
-        <v>0.9698359567785195</v>
+        <v>1.001719665601168</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9557822748002686</v>
+        <v>0.9745805675496857</v>
       </c>
       <c r="D24">
-        <v>0.9842516706758997</v>
+        <v>1.001498696261565</v>
       </c>
       <c r="E24">
-        <v>0.9673338784300144</v>
+        <v>0.9847047398159373</v>
       </c>
       <c r="F24">
-        <v>0.9708297840211423</v>
+        <v>0.9983224060630789</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02926795635702</v>
+        <v>1.038729405699762</v>
       </c>
       <c r="J24">
-        <v>0.9850955169056977</v>
+        <v>1.003093492599288</v>
       </c>
       <c r="K24">
-        <v>0.9985611064839855</v>
+        <v>1.01549954413201</v>
       </c>
       <c r="L24">
-        <v>0.9819600056473591</v>
+        <v>0.9990058892063012</v>
       </c>
       <c r="M24">
-        <v>0.9853892869638274</v>
+        <v>1.012379046319191</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9749069546089696</v>
+        <v>0.9890651553535811</v>
       </c>
       <c r="D25">
-        <v>0.9990791820418191</v>
+        <v>1.013053126820992</v>
       </c>
       <c r="E25">
-        <v>0.9840507162972872</v>
+        <v>0.9967243197978146</v>
       </c>
       <c r="F25">
-        <v>0.9890326581900318</v>
+        <v>1.011520084067411</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036482505108606</v>
+        <v>1.043798736416706</v>
       </c>
       <c r="J25">
-        <v>1.000309349167581</v>
+        <v>1.013966208883931</v>
       </c>
       <c r="K25">
-        <v>1.011691809360938</v>
+        <v>1.025452133664529</v>
       </c>
       <c r="L25">
-        <v>0.996901775295206</v>
+        <v>1.009373700209184</v>
       </c>
       <c r="M25">
-        <v>1.001803647837081</v>
+        <v>1.023942159543217</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999221236757964</v>
+        <v>1.05760193325069</v>
       </c>
       <c r="D2">
-        <v>1.021727866583558</v>
+        <v>1.06940425104495</v>
       </c>
       <c r="E2">
-        <v>1.005762728744775</v>
+        <v>1.065776184232979</v>
       </c>
       <c r="F2">
-        <v>1.021441438391428</v>
+        <v>1.077032101285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047543684844398</v>
+        <v>1.078879859530984</v>
       </c>
       <c r="J2">
-        <v>1.022105164260819</v>
+        <v>1.078186420515731</v>
       </c>
       <c r="K2">
-        <v>1.03289257458875</v>
+        <v>1.079974492067251</v>
       </c>
       <c r="L2">
-        <v>1.017142359204818</v>
+        <v>1.076389344668714</v>
       </c>
       <c r="M2">
-        <v>1.032609928041201</v>
+        <v>1.087513271705826</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007454035356415</v>
+        <v>1.063522466380918</v>
       </c>
       <c r="D3">
-        <v>1.027751120223672</v>
+        <v>1.074065806397485</v>
       </c>
       <c r="E3">
-        <v>1.012047340157444</v>
+        <v>1.070800897013728</v>
       </c>
       <c r="F3">
-        <v>1.028338446476529</v>
+        <v>1.082184121125308</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050108371178751</v>
+        <v>1.081420050035805</v>
       </c>
       <c r="J3">
-        <v>1.027743538050931</v>
+        <v>1.082419460484958</v>
       </c>
       <c r="K3">
-        <v>1.038040818670561</v>
+        <v>1.08383122484027</v>
       </c>
       <c r="L3">
-        <v>1.02252835916117</v>
+        <v>1.08060145115459</v>
       </c>
       <c r="M3">
-        <v>1.038621130062313</v>
+        <v>1.091863297274613</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012180054817222</v>
+        <v>1.067263066248697</v>
       </c>
       <c r="D4">
-        <v>1.031532096268792</v>
+        <v>1.077013149353369</v>
       </c>
       <c r="E4">
-        <v>1.015996624631433</v>
+        <v>1.073979572380053</v>
       </c>
       <c r="F4">
-        <v>1.032671902267671</v>
+        <v>1.085443762714172</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051701697589432</v>
+        <v>1.083014689303585</v>
       </c>
       <c r="J4">
-        <v>1.031277243129823</v>
+        <v>1.085089760111248</v>
       </c>
       <c r="K4">
-        <v>1.041264287661586</v>
+        <v>1.086263130068088</v>
       </c>
       <c r="L4">
-        <v>1.025905743290688</v>
+        <v>1.08326016791934</v>
       </c>
       <c r="M4">
-        <v>1.042391370847321</v>
+        <v>1.094609752987567</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01413352818102</v>
+        <v>1.068814916440153</v>
       </c>
       <c r="D5">
-        <v>1.033095208409594</v>
+        <v>1.078236365445174</v>
       </c>
       <c r="E5">
-        <v>1.017630359635274</v>
+        <v>1.075299218299399</v>
       </c>
       <c r="F5">
-        <v>1.034464408218172</v>
+        <v>1.08679712526144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052356394483084</v>
+        <v>1.083673752558797</v>
       </c>
       <c r="J5">
-        <v>1.032736805792892</v>
+        <v>1.086196545059767</v>
       </c>
       <c r="K5">
-        <v>1.042594950016571</v>
+        <v>1.087270853058927</v>
       </c>
       <c r="L5">
-        <v>1.027301173173076</v>
+        <v>1.084362535125795</v>
       </c>
       <c r="M5">
-        <v>1.043949306119059</v>
+        <v>1.095748662009276</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01445962451924</v>
+        <v>1.069074291412269</v>
       </c>
       <c r="D6">
-        <v>1.033356153681458</v>
+        <v>1.078440838292039</v>
       </c>
       <c r="E6">
-        <v>1.017903156572497</v>
+        <v>1.075519835389383</v>
       </c>
       <c r="F6">
-        <v>1.034763707526688</v>
+        <v>1.087023385111565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05246545284479</v>
+        <v>1.083783759802438</v>
       </c>
       <c r="J6">
-        <v>1.032980387698983</v>
+        <v>1.086381470303676</v>
       </c>
       <c r="K6">
-        <v>1.042816974687047</v>
+        <v>1.087439211593351</v>
       </c>
       <c r="L6">
-        <v>1.027534077438812</v>
+        <v>1.084546744596409</v>
       </c>
       <c r="M6">
-        <v>1.044209344321524</v>
+        <v>1.095938987319595</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012206285732026</v>
+        <v>1.067283882275432</v>
       </c>
       <c r="D7">
-        <v>1.031553084565824</v>
+        <v>1.077029555435874</v>
       </c>
       <c r="E7">
-        <v>1.016018557046517</v>
+        <v>1.073997270126505</v>
       </c>
       <c r="F7">
-        <v>1.032695966732133</v>
+        <v>1.085461912226961</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051710504266085</v>
+        <v>1.083023539699283</v>
       </c>
       <c r="J7">
-        <v>1.031296846236623</v>
+        <v>1.085104610310193</v>
       </c>
       <c r="K7">
-        <v>1.041282162577339</v>
+        <v>1.08627665212152</v>
       </c>
       <c r="L7">
-        <v>1.025924483335104</v>
+        <v>1.083274957336346</v>
       </c>
       <c r="M7">
-        <v>1.042412292529776</v>
+        <v>1.094625032007345</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002499395086168</v>
+        <v>1.059622103563452</v>
       </c>
       <c r="D8">
-        <v>1.023788496818876</v>
+        <v>1.070994348289596</v>
       </c>
       <c r="E8">
-        <v>1.00791189060559</v>
+        <v>1.067489801679591</v>
       </c>
       <c r="F8">
-        <v>1.023800166587077</v>
+        <v>1.078789044611944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04842458627296</v>
+        <v>1.079748740142843</v>
       </c>
       <c r="J8">
-        <v>1.024035342803366</v>
+        <v>1.079631639143884</v>
       </c>
       <c r="K8">
-        <v>1.034655597740437</v>
+        <v>1.081291440854024</v>
       </c>
       <c r="L8">
-        <v>1.018985746325865</v>
+        <v>1.077827071027078</v>
       </c>
       <c r="M8">
-        <v>1.03466711848514</v>
+        <v>1.088997930046041</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.984164089627436</v>
+        <v>1.045383418914609</v>
       </c>
       <c r="D9">
-        <v>1.009140834849348</v>
+        <v>1.059798750954035</v>
       </c>
       <c r="E9">
-        <v>0.9926522960746528</v>
+        <v>1.055431488545033</v>
       </c>
       <c r="F9">
-        <v>1.007049438478527</v>
+        <v>1.066427708865669</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042091959888394</v>
+        <v>1.073582493057572</v>
       </c>
       <c r="J9">
-        <v>1.010288720775894</v>
+        <v>1.069429423378333</v>
       </c>
       <c r="K9">
-        <v>1.0220873290223</v>
+        <v>1.071990807964208</v>
       </c>
       <c r="L9">
-        <v>1.005865720269265</v>
+        <v>1.067684979087627</v>
       </c>
       <c r="M9">
-        <v>1.020029169549393</v>
+        <v>1.078527729450088</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9709551553749221</v>
+        <v>1.035325950119478</v>
       </c>
       <c r="D10">
-        <v>0.9986107525519303</v>
+        <v>1.051908910201825</v>
       </c>
       <c r="E10">
-        <v>0.981703414460259</v>
+        <v>1.046942124658844</v>
       </c>
       <c r="F10">
-        <v>0.9950262175165737</v>
+        <v>1.057727388327627</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03744958381124</v>
+        <v>1.069175169991868</v>
       </c>
       <c r="J10">
-        <v>1.00037049235845</v>
+        <v>1.062204853705918</v>
       </c>
       <c r="K10">
-        <v>1.01300513567595</v>
+        <v>1.065400182176995</v>
       </c>
       <c r="L10">
-        <v>0.9964110687344452</v>
+        <v>1.060512572997253</v>
       </c>
       <c r="M10">
-        <v>1.009485859612727</v>
+        <v>1.071127116360153</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9649600173681462</v>
+        <v>1.030819711873886</v>
       </c>
       <c r="D11">
-        <v>0.9938391773014119</v>
+        <v>1.048379257940556</v>
       </c>
       <c r="E11">
-        <v>0.9767466749121186</v>
+        <v>1.043146131026216</v>
       </c>
       <c r="F11">
-        <v>0.9895819087936829</v>
+        <v>1.053837638857065</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035324887572692</v>
+        <v>1.067188835813372</v>
       </c>
       <c r="J11">
-        <v>0.9958668161340869</v>
+        <v>1.058964275524683</v>
       </c>
       <c r="K11">
-        <v>1.008878220518883</v>
+        <v>1.062443057841109</v>
       </c>
       <c r="L11">
-        <v>0.9921208545917997</v>
+        <v>1.057297798655277</v>
       </c>
       <c r="M11">
-        <v>1.004703006227615</v>
+        <v>1.067810984981701</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9626875941896351</v>
+        <v>1.029121537270891</v>
       </c>
       <c r="D12">
-        <v>0.9920319327941781</v>
+        <v>1.047050017287395</v>
       </c>
       <c r="E12">
-        <v>0.9748699531986089</v>
+        <v>1.041716855707315</v>
       </c>
       <c r="F12">
-        <v>0.9875203897184217</v>
+        <v>1.052373149238318</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034517016113377</v>
+        <v>1.066438598400583</v>
       </c>
       <c r="J12">
-        <v>0.9941595529303563</v>
+        <v>1.05774258701215</v>
       </c>
       <c r="K12">
-        <v>1.007313397277253</v>
+        <v>1.061328110361135</v>
       </c>
       <c r="L12">
-        <v>0.9904949788339737</v>
+        <v>1.056086211833682</v>
       </c>
       <c r="M12">
-        <v>1.002890649560782</v>
+        <v>1.066561340049701</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9631771716115785</v>
+        <v>1.029486931502477</v>
       </c>
       <c r="D13">
-        <v>0.9924212238014932</v>
+        <v>1.047335985767808</v>
       </c>
       <c r="E13">
-        <v>0.9752741811357711</v>
+        <v>1.042024333448122</v>
       </c>
       <c r="F13">
-        <v>0.9879644302275945</v>
+        <v>1.05268819863995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034691177519454</v>
+        <v>1.066600101314815</v>
       </c>
       <c r="J13">
-        <v>0.9945273758381923</v>
+        <v>1.058005476748472</v>
       </c>
       <c r="K13">
-        <v>1.007650548565395</v>
+        <v>1.061568036143147</v>
       </c>
       <c r="L13">
-        <v>0.9908452456400905</v>
+        <v>1.056346910746593</v>
       </c>
       <c r="M13">
-        <v>1.003281080492961</v>
+        <v>1.06683022156295</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9647731337354518</v>
+        <v>1.030679847060564</v>
       </c>
       <c r="D14">
-        <v>0.9936905201638986</v>
+        <v>1.048269760180973</v>
       </c>
       <c r="E14">
-        <v>0.9765922898123001</v>
+        <v>1.043028387436089</v>
       </c>
       <c r="F14">
-        <v>0.9894123256895083</v>
+        <v>1.053716992546862</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035258498569964</v>
+        <v>1.067127078780378</v>
       </c>
       <c r="J14">
-        <v>0.9957264137069235</v>
+        <v>1.058863664291086</v>
       </c>
       <c r="K14">
-        <v>1.008749539594655</v>
+        <v>1.062351239534945</v>
       </c>
       <c r="L14">
-        <v>0.9919871357064158</v>
+        <v>1.057198011676133</v>
       </c>
       <c r="M14">
-        <v>1.004553945910466</v>
+        <v>1.067708060631667</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9657502869962026</v>
+        <v>1.031411562898829</v>
       </c>
       <c r="D15">
-        <v>0.9944678577037419</v>
+        <v>1.048842645508813</v>
       </c>
       <c r="E15">
-        <v>0.9773996055696623</v>
+        <v>1.043644425242674</v>
       </c>
       <c r="F15">
-        <v>0.9902991074004309</v>
+        <v>1.054348221009104</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035605523505423</v>
+        <v>1.067450098115641</v>
       </c>
       <c r="J15">
-        <v>0.9964605259656216</v>
+        <v>1.059390002321034</v>
       </c>
       <c r="K15">
-        <v>1.009422349178337</v>
+        <v>1.062831573405471</v>
       </c>
       <c r="L15">
-        <v>0.9926863213454556</v>
+        <v>1.057720052987003</v>
       </c>
       <c r="M15">
-        <v>1.005333357260496</v>
+        <v>1.068246521047737</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9713468846503194</v>
+        <v>1.035621691306482</v>
       </c>
       <c r="D16">
-        <v>0.9989227113450486</v>
+        <v>1.052140678792625</v>
       </c>
       <c r="E16">
-        <v>0.982027571235693</v>
+        <v>1.047191419831637</v>
       </c>
       <c r="F16">
-        <v>0.9953822340248444</v>
+        <v>1.0579828527268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037588059969095</v>
+        <v>1.069305294835412</v>
       </c>
       <c r="J16">
-        <v>1.000664736261793</v>
+        <v>1.06241746080125</v>
       </c>
       <c r="K16">
-        <v>1.013274708822579</v>
+        <v>1.065594175029909</v>
       </c>
       <c r="L16">
-        <v>0.9966914293169087</v>
+        <v>1.060723538146276</v>
       </c>
       <c r="M16">
-        <v>1.009798442664021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.071344752376699</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9747809398646654</v>
+        <v>1.038220986731571</v>
       </c>
       <c r="D17">
-        <v>1.001658360884277</v>
+        <v>1.054178335328791</v>
       </c>
       <c r="E17">
-        <v>0.9848707036241793</v>
+        <v>1.049383376394831</v>
       </c>
       <c r="F17">
-        <v>0.9985046668897106</v>
+        <v>1.060229118064416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038800022434276</v>
+        <v>1.070447660176237</v>
       </c>
       <c r="J17">
-        <v>1.003243975742812</v>
+        <v>1.064285680447133</v>
       </c>
       <c r="K17">
-        <v>1.015637375372957</v>
+        <v>1.067298727255857</v>
       </c>
       <c r="L17">
-        <v>0.9991493083574434</v>
+        <v>1.062577603863962</v>
       </c>
       <c r="M17">
-        <v>1.012538965609308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.073257550508422</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9767576858556156</v>
+        <v>1.039722632316262</v>
       </c>
       <c r="D18">
-        <v>1.003233790231204</v>
+        <v>1.055356017041798</v>
       </c>
       <c r="E18">
-        <v>0.9865084665040514</v>
+        <v>1.050650414544401</v>
       </c>
       <c r="F18">
-        <v>1.000303206938722</v>
+        <v>1.061527603004408</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039495998783774</v>
+        <v>1.071106514681476</v>
       </c>
       <c r="J18">
-        <v>1.004728457760881</v>
+        <v>1.0653646278742</v>
       </c>
       <c r="K18">
-        <v>1.016996936737022</v>
+        <v>1.068283066113012</v>
       </c>
       <c r="L18">
-        <v>1.000564217321081</v>
+        <v>1.063648603444574</v>
       </c>
       <c r="M18">
-        <v>1.014116708687677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.074362564449927</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9774273647254159</v>
+        <v>1.040232245695772</v>
       </c>
       <c r="D19">
-        <v>1.003767625068108</v>
+        <v>1.055755769138143</v>
       </c>
       <c r="E19">
-        <v>0.9870634980097552</v>
+        <v>1.051080528228709</v>
       </c>
       <c r="F19">
-        <v>1.000912706666412</v>
+        <v>1.0619684009026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03973149418553</v>
+        <v>1.071329921053084</v>
       </c>
       <c r="J19">
-        <v>1.005231329273237</v>
+        <v>1.065730729545459</v>
       </c>
       <c r="K19">
-        <v>1.017457443645879</v>
+        <v>1.068617050740321</v>
       </c>
       <c r="L19">
-        <v>1.001043566995448</v>
+        <v>1.064012046364091</v>
       </c>
       <c r="M19">
-        <v>1.014651245231906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.074737564928451</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9744152447724715</v>
+        <v>1.037943615895239</v>
       </c>
       <c r="D20">
-        <v>1.001366964480282</v>
+        <v>1.053960844189915</v>
       </c>
       <c r="E20">
-        <v>0.9845678133464153</v>
+        <v>1.049149397578806</v>
       </c>
       <c r="F20">
-        <v>0.9981720333013896</v>
+        <v>1.059989336471062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038671131923802</v>
+        <v>1.070325872589981</v>
       </c>
       <c r="J20">
-        <v>1.002969331088376</v>
+        <v>1.064086358234132</v>
       </c>
       <c r="K20">
-        <v>1.015385819977505</v>
+        <v>1.067116875728713</v>
       </c>
       <c r="L20">
-        <v>0.9988875576577294</v>
+        <v>1.06237976815358</v>
       </c>
       <c r="M20">
-        <v>1.012247101635692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.073053438720192</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.964304456725367</v>
+        <v>1.030329249372443</v>
       </c>
       <c r="D21">
-        <v>0.9933177329099556</v>
+        <v>1.047995298237398</v>
       </c>
       <c r="E21">
-        <v>0.9762051489369161</v>
+        <v>1.042733261143026</v>
       </c>
       <c r="F21">
-        <v>0.9889870706599817</v>
+        <v>1.053414591938033</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035091964619307</v>
+        <v>1.066972246103466</v>
       </c>
       <c r="J21">
-        <v>0.9953743025944705</v>
+        <v>1.058611455693036</v>
       </c>
       <c r="K21">
-        <v>1.008426818500551</v>
+        <v>1.062121070847145</v>
       </c>
       <c r="L21">
-        <v>0.9916517936538798</v>
+        <v>1.056947875348327</v>
       </c>
       <c r="M21">
-        <v>1.004180133922465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.067450062129782</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576812870988827</v>
+        <v>1.025399951602844</v>
       </c>
       <c r="D22">
-        <v>0.9880533068867441</v>
+        <v>1.044138745648116</v>
       </c>
       <c r="E22">
-        <v>0.9707395354269923</v>
+        <v>1.038586968124136</v>
       </c>
       <c r="F22">
-        <v>0.9829828829393839</v>
+        <v>1.049166308650724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032732736085843</v>
+        <v>1.064791400279521</v>
       </c>
       <c r="J22">
-        <v>0.9903981940022448</v>
+        <v>1.055064428747205</v>
       </c>
       <c r="K22">
-        <v>1.003865204125853</v>
+        <v>1.058883743681951</v>
       </c>
       <c r="L22">
-        <v>0.9869138206146364</v>
+        <v>1.053430900953702</v>
       </c>
       <c r="M22">
-        <v>0.9988991615923466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.063822883742733</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.961219126765203</v>
+        <v>1.02802709508006</v>
       </c>
       <c r="D23">
-        <v>0.9908644944453364</v>
+        <v>1.046193615098567</v>
       </c>
       <c r="E23">
-        <v>0.9736578134671992</v>
+        <v>1.040796076988091</v>
       </c>
       <c r="F23">
-        <v>0.9861888362963218</v>
+        <v>1.051429709070425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033994268420364</v>
+        <v>1.06595461647526</v>
       </c>
       <c r="J23">
-        <v>0.993056270310989</v>
+        <v>1.056955105401457</v>
       </c>
       <c r="K23">
-        <v>1.006302061708557</v>
+        <v>1.060609400476964</v>
       </c>
       <c r="L23">
-        <v>0.9894444261553497</v>
+        <v>1.055305348572706</v>
       </c>
       <c r="M23">
-        <v>1.001719665601168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.065755988585746</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9745805675496857</v>
+        <v>1.038068992462553</v>
       </c>
       <c r="D24">
-        <v>1.001498696261565</v>
+        <v>1.054059152515436</v>
       </c>
       <c r="E24">
-        <v>0.9847047398159373</v>
+        <v>1.049255157959909</v>
       </c>
       <c r="F24">
-        <v>0.9983224060630789</v>
+        <v>1.060097719588095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038729405699762</v>
+        <v>1.070380926182977</v>
       </c>
       <c r="J24">
-        <v>1.003093492599288</v>
+        <v>1.064176456511089</v>
       </c>
       <c r="K24">
-        <v>1.01549954413201</v>
+        <v>1.067199077117899</v>
       </c>
       <c r="L24">
-        <v>0.9990058892063012</v>
+        <v>1.062469193795026</v>
       </c>
       <c r="M24">
-        <v>1.012379046319191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.073145701000793</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9890651553535811</v>
+        <v>1.049158633728951</v>
       </c>
       <c r="D25">
-        <v>1.013053126820992</v>
+        <v>1.062764346389421</v>
       </c>
       <c r="E25">
-        <v>0.9967243197978146</v>
+        <v>1.05862411209971</v>
       </c>
       <c r="F25">
-        <v>1.011520084067411</v>
+        <v>1.069700156100093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043798736416706</v>
+        <v>1.07522648657678</v>
       </c>
       <c r="J25">
-        <v>1.013966208883931</v>
+        <v>1.072137767937352</v>
       </c>
       <c r="K25">
-        <v>1.025452133664529</v>
+        <v>1.074460635271693</v>
       </c>
       <c r="L25">
-        <v>1.009373700209184</v>
+        <v>1.0703757599316</v>
       </c>
       <c r="M25">
-        <v>1.023942159543217</v>
+        <v>1.081304909882459</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.05760193325069</v>
+        <v>1.080686369548288</v>
       </c>
       <c r="D2">
-        <v>1.06940425104495</v>
+        <v>1.081314231955256</v>
       </c>
       <c r="E2">
-        <v>1.065776184232979</v>
+        <v>1.083625367113356</v>
       </c>
       <c r="F2">
-        <v>1.077032101285</v>
+        <v>1.093730810571756</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.078879859530984</v>
+        <v>1.067001903477116</v>
       </c>
       <c r="J2">
-        <v>1.078186420515731</v>
+        <v>1.085564674350209</v>
       </c>
       <c r="K2">
-        <v>1.079974492067251</v>
+        <v>1.083985378331075</v>
       </c>
       <c r="L2">
-        <v>1.076389344668714</v>
+        <v>1.086290496804683</v>
       </c>
       <c r="M2">
-        <v>1.087513271705826</v>
+        <v>1.096369954386103</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.063522466380918</v>
+        <v>1.081900152883504</v>
       </c>
       <c r="D3">
-        <v>1.074065806397485</v>
+        <v>1.082279443728756</v>
       </c>
       <c r="E3">
-        <v>1.070800897013728</v>
+        <v>1.084690541199117</v>
       </c>
       <c r="F3">
-        <v>1.082184121125308</v>
+        <v>1.094823840609915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.081420050035805</v>
+        <v>1.06744291583022</v>
       </c>
       <c r="J3">
-        <v>1.082419460484958</v>
+        <v>1.086438655726869</v>
       </c>
       <c r="K3">
-        <v>1.08383122484027</v>
+        <v>1.084768655942776</v>
       </c>
       <c r="L3">
-        <v>1.08060145115459</v>
+        <v>1.087173930016216</v>
       </c>
       <c r="M3">
-        <v>1.091863297274613</v>
+        <v>1.097283056065761</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.067263066248697</v>
+        <v>1.082685458684608</v>
       </c>
       <c r="D4">
-        <v>1.077013149353369</v>
+        <v>1.082903842965749</v>
       </c>
       <c r="E4">
-        <v>1.073979572380053</v>
+        <v>1.085379832326296</v>
       </c>
       <c r="F4">
-        <v>1.085443762714172</v>
+        <v>1.095531235005786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.083014689303585</v>
+        <v>1.067726974172488</v>
       </c>
       <c r="J4">
-        <v>1.085089760111248</v>
+        <v>1.087003501696314</v>
       </c>
       <c r="K4">
-        <v>1.086263130068088</v>
+        <v>1.085274706203559</v>
       </c>
       <c r="L4">
-        <v>1.08326016791934</v>
+        <v>1.087745016320181</v>
       </c>
       <c r="M4">
-        <v>1.094609752987567</v>
+        <v>1.097873421732351</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.068814916440153</v>
+        <v>1.083015580419484</v>
       </c>
       <c r="D5">
-        <v>1.078236365445174</v>
+        <v>1.083166303299428</v>
       </c>
       <c r="E5">
-        <v>1.075299218299399</v>
+        <v>1.085669623548777</v>
       </c>
       <c r="F5">
-        <v>1.08679712526144</v>
+        <v>1.095828655638714</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.083673752558797</v>
+        <v>1.067846080079299</v>
       </c>
       <c r="J5">
-        <v>1.086196545059767</v>
+        <v>1.087240801340488</v>
       </c>
       <c r="K5">
-        <v>1.087270853058927</v>
+        <v>1.085487262998474</v>
       </c>
       <c r="L5">
-        <v>1.084362535125795</v>
+        <v>1.087984969089828</v>
       </c>
       <c r="M5">
-        <v>1.095748662009276</v>
+        <v>1.098121499118141</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.069074291412269</v>
+        <v>1.083071008133466</v>
       </c>
       <c r="D6">
-        <v>1.078440838292039</v>
+        <v>1.083210369384687</v>
       </c>
       <c r="E6">
-        <v>1.075519835389383</v>
+        <v>1.08571828156711</v>
       </c>
       <c r="F6">
-        <v>1.087023385111565</v>
+        <v>1.095878595770214</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.083783759802438</v>
+        <v>1.067866060190167</v>
       </c>
       <c r="J6">
-        <v>1.086381470303676</v>
+        <v>1.087280635542253</v>
       </c>
       <c r="K6">
-        <v>1.087439211593351</v>
+        <v>1.085522941288429</v>
       </c>
       <c r="L6">
-        <v>1.084546744596409</v>
+        <v>1.08802525050155</v>
       </c>
       <c r="M6">
-        <v>1.095938987319595</v>
+        <v>1.098163145835497</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.067283882275432</v>
+        <v>1.082689869867341</v>
       </c>
       <c r="D7">
-        <v>1.077029555435874</v>
+        <v>1.082907350118671</v>
       </c>
       <c r="E7">
-        <v>1.073997270126505</v>
+        <v>1.085383704477892</v>
       </c>
       <c r="F7">
-        <v>1.085461912226961</v>
+        <v>1.095535209028109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.083023539699283</v>
+        <v>1.067728566897663</v>
       </c>
       <c r="J7">
-        <v>1.085104610310193</v>
+        <v>1.087006673139733</v>
       </c>
       <c r="K7">
-        <v>1.08627665212152</v>
+        <v>1.085277547130776</v>
       </c>
       <c r="L7">
-        <v>1.083274957336346</v>
+        <v>1.087748223098242</v>
       </c>
       <c r="M7">
-        <v>1.094625032007345</v>
+        <v>1.097876736995062</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.059622103563452</v>
+        <v>1.081096593495043</v>
       </c>
       <c r="D8">
-        <v>1.070994348289596</v>
+        <v>1.081640462703724</v>
       </c>
       <c r="E8">
-        <v>1.067489801679591</v>
+        <v>1.083985337293444</v>
       </c>
       <c r="F8">
-        <v>1.078789044611944</v>
+        <v>1.094100178512696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.079748740142843</v>
+        <v>1.067151216395424</v>
       </c>
       <c r="J8">
-        <v>1.079631639143884</v>
+        <v>1.085860181410225</v>
       </c>
       <c r="K8">
-        <v>1.081291440854024</v>
+        <v>1.084250253129278</v>
       </c>
       <c r="L8">
-        <v>1.077827071027078</v>
+        <v>1.086589172355008</v>
       </c>
       <c r="M8">
-        <v>1.088997930046041</v>
+        <v>1.096678639562403</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.045383418914609</v>
+        <v>1.078288256736938</v>
       </c>
       <c r="D9">
-        <v>1.059798750954035</v>
+        <v>1.079406814918399</v>
       </c>
       <c r="E9">
-        <v>1.055431488545033</v>
+        <v>1.081521603372533</v>
       </c>
       <c r="F9">
-        <v>1.066427708865669</v>
+        <v>1.091572442080405</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073582493057572</v>
+        <v>1.066123826274001</v>
       </c>
       <c r="J9">
-        <v>1.069429423378333</v>
+        <v>1.083834683858763</v>
       </c>
       <c r="K9">
-        <v>1.071990807964208</v>
+        <v>1.082434005563909</v>
       </c>
       <c r="L9">
-        <v>1.067684979087627</v>
+        <v>1.084542500478427</v>
       </c>
       <c r="M9">
-        <v>1.078527729450088</v>
+        <v>1.09456379083628</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.035325950119478</v>
+        <v>1.076415412255023</v>
       </c>
       <c r="D10">
-        <v>1.051908910201825</v>
+        <v>1.077916851078964</v>
       </c>
       <c r="E10">
-        <v>1.046942124658844</v>
+        <v>1.079879313134068</v>
       </c>
       <c r="F10">
-        <v>1.057727388327627</v>
+        <v>1.089887890111294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069175169991868</v>
+        <v>1.065432128266147</v>
       </c>
       <c r="J10">
-        <v>1.062204853705918</v>
+        <v>1.082480780453503</v>
       </c>
       <c r="K10">
-        <v>1.065400182176995</v>
+        <v>1.081219080078009</v>
       </c>
       <c r="L10">
-        <v>1.060512572997253</v>
+        <v>1.083175129020921</v>
       </c>
       <c r="M10">
-        <v>1.071127116360153</v>
+        <v>1.093151392348076</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.030819711873886</v>
+        <v>1.075604280900414</v>
       </c>
       <c r="D11">
-        <v>1.048379257940556</v>
+        <v>1.077271465728614</v>
       </c>
       <c r="E11">
-        <v>1.043146131026216</v>
+        <v>1.079168218982717</v>
       </c>
       <c r="F11">
-        <v>1.053837638857065</v>
+        <v>1.089158592844756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067188835813372</v>
+        <v>1.065131001947355</v>
       </c>
       <c r="J11">
-        <v>1.058964275524683</v>
+        <v>1.081893665542158</v>
       </c>
       <c r="K11">
-        <v>1.062443057841109</v>
+        <v>1.080692022600122</v>
       </c>
       <c r="L11">
-        <v>1.057297798655277</v>
+        <v>1.082582337180067</v>
       </c>
       <c r="M11">
-        <v>1.067810984981701</v>
+        <v>1.092539204261199</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.029121537270891</v>
+        <v>1.075302961965501</v>
       </c>
       <c r="D12">
-        <v>1.047050017287395</v>
+        <v>1.077031706740819</v>
       </c>
       <c r="E12">
-        <v>1.041716855707315</v>
+        <v>1.078904090117165</v>
       </c>
       <c r="F12">
-        <v>1.052373149238318</v>
+        <v>1.088887717047011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.066438598400583</v>
+        <v>1.065018906653415</v>
       </c>
       <c r="J12">
-        <v>1.05774258701215</v>
+        <v>1.081675453662155</v>
       </c>
       <c r="K12">
-        <v>1.061328110361135</v>
+        <v>1.080496100757731</v>
       </c>
       <c r="L12">
-        <v>1.056086211833682</v>
+        <v>1.082362039995718</v>
       </c>
       <c r="M12">
-        <v>1.066561340049701</v>
+        <v>1.092311717611416</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.029486931502477</v>
+        <v>1.075367597227633</v>
       </c>
       <c r="D13">
-        <v>1.047335985767808</v>
+        <v>1.0770831374167</v>
       </c>
       <c r="E13">
-        <v>1.042024333448122</v>
+        <v>1.078960746529895</v>
       </c>
       <c r="F13">
-        <v>1.05268819863995</v>
+        <v>1.088945820042463</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.066600101314815</v>
+        <v>1.065042962507966</v>
       </c>
       <c r="J13">
-        <v>1.058005476748472</v>
+        <v>1.081722266809985</v>
       </c>
       <c r="K13">
-        <v>1.061568036143147</v>
+        <v>1.08053813342667</v>
       </c>
       <c r="L13">
-        <v>1.056346910746593</v>
+        <v>1.082409299389723</v>
       </c>
       <c r="M13">
-        <v>1.06683022156295</v>
+        <v>1.09236051848354</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.030679847060564</v>
+        <v>1.075579374378904</v>
       </c>
       <c r="D14">
-        <v>1.048269760180973</v>
+        <v>1.077251647877423</v>
       </c>
       <c r="E14">
-        <v>1.043028387436089</v>
+        <v>1.079146385950103</v>
       </c>
       <c r="F14">
-        <v>1.053716992546862</v>
+        <v>1.089136201812411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067127078780378</v>
+        <v>1.065121741088266</v>
       </c>
       <c r="J14">
-        <v>1.058863664291086</v>
+        <v>1.081875630764609</v>
       </c>
       <c r="K14">
-        <v>1.062351239534945</v>
+        <v>1.080675830689405</v>
       </c>
       <c r="L14">
-        <v>1.057198011676133</v>
+        <v>1.082564129553498</v>
       </c>
       <c r="M14">
-        <v>1.067708060631667</v>
+        <v>1.092520402041682</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.031411562898829</v>
+        <v>1.075709853417458</v>
       </c>
       <c r="D15">
-        <v>1.048842645508813</v>
+        <v>1.077355468183827</v>
       </c>
       <c r="E15">
-        <v>1.043644425242674</v>
+        <v>1.079260764910172</v>
       </c>
       <c r="F15">
-        <v>1.054348221009104</v>
+        <v>1.089253504614627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067450098115641</v>
+        <v>1.065170246874864</v>
       </c>
       <c r="J15">
-        <v>1.059390002321034</v>
+        <v>1.081970105929991</v>
       </c>
       <c r="K15">
-        <v>1.062831573405471</v>
+        <v>1.080760650713998</v>
       </c>
       <c r="L15">
-        <v>1.057720052987003</v>
+        <v>1.082659511197131</v>
       </c>
       <c r="M15">
-        <v>1.068246521047737</v>
+        <v>1.092618899258527</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.035621691306482</v>
+        <v>1.076469240465385</v>
       </c>
       <c r="D16">
-        <v>1.052140678792625</v>
+        <v>1.077959678442116</v>
       </c>
       <c r="E16">
-        <v>1.047191419831637</v>
+        <v>1.079926506614846</v>
       </c>
       <c r="F16">
-        <v>1.0579828527268</v>
+        <v>1.089936293707444</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069305294835412</v>
+        <v>1.06545207890957</v>
       </c>
       <c r="J16">
-        <v>1.06241746080125</v>
+        <v>1.082519726994063</v>
       </c>
       <c r="K16">
-        <v>1.065594175029909</v>
+        <v>1.081254038273877</v>
       </c>
       <c r="L16">
-        <v>1.060723538146276</v>
+        <v>1.083214455591063</v>
       </c>
       <c r="M16">
-        <v>1.071344752376699</v>
+        <v>1.093192008308268</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.038220986731571</v>
+        <v>1.076945535014761</v>
       </c>
       <c r="D17">
-        <v>1.054178335328791</v>
+        <v>1.07833862372198</v>
       </c>
       <c r="E17">
-        <v>1.049383376394831</v>
+        <v>1.080344115616414</v>
       </c>
       <c r="F17">
-        <v>1.060229118064416</v>
+        <v>1.09036462193219</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.070447660176237</v>
+        <v>1.065628431411616</v>
       </c>
       <c r="J17">
-        <v>1.064285680447133</v>
+        <v>1.082864257131753</v>
       </c>
       <c r="K17">
-        <v>1.067298727255857</v>
+        <v>1.081563262386787</v>
       </c>
       <c r="L17">
-        <v>1.062577603863962</v>
+        <v>1.083562366434179</v>
       </c>
       <c r="M17">
-        <v>1.073257550508422</v>
+        <v>1.093551340354096</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.039722632316262</v>
+        <v>1.077223332590492</v>
       </c>
       <c r="D18">
-        <v>1.055356017041798</v>
+        <v>1.078559634812967</v>
       </c>
       <c r="E18">
-        <v>1.050650414544401</v>
+        <v>1.08058770269156</v>
       </c>
       <c r="F18">
-        <v>1.061527603004408</v>
+        <v>1.090614470657842</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.071106514681476</v>
+        <v>1.065731138919414</v>
       </c>
       <c r="J18">
-        <v>1.0653646278742</v>
+        <v>1.083065132274109</v>
       </c>
       <c r="K18">
-        <v>1.068283066113012</v>
+        <v>1.081743532441508</v>
       </c>
       <c r="L18">
-        <v>1.063648603444574</v>
+        <v>1.083765228416611</v>
       </c>
       <c r="M18">
-        <v>1.074362564449927</v>
+        <v>1.093760873850521</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.040232245695772</v>
+        <v>1.077318051565926</v>
       </c>
       <c r="D19">
-        <v>1.055755769138143</v>
+        <v>1.078634990301643</v>
       </c>
       <c r="E19">
-        <v>1.051080528228709</v>
+        <v>1.08067076009929</v>
       </c>
       <c r="F19">
-        <v>1.0619684009026</v>
+        <v>1.09069966470498</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.071329921053084</v>
+        <v>1.065766133099684</v>
       </c>
       <c r="J19">
-        <v>1.065730729545459</v>
+        <v>1.083133611386652</v>
       </c>
       <c r="K19">
-        <v>1.068617050740321</v>
+        <v>1.081804983764316</v>
       </c>
       <c r="L19">
-        <v>1.064012046364091</v>
+        <v>1.083834387519954</v>
       </c>
       <c r="M19">
-        <v>1.074737564928451</v>
+        <v>1.093832309415538</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.037943615895239</v>
+        <v>1.076894434887316</v>
       </c>
       <c r="D20">
-        <v>1.053960844189915</v>
+        <v>1.078297968687141</v>
       </c>
       <c r="E20">
-        <v>1.049149397578806</v>
+        <v>1.080299309839842</v>
       </c>
       <c r="F20">
-        <v>1.059989336471062</v>
+        <v>1.090318665121411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.070325872589981</v>
+        <v>1.065609526589977</v>
       </c>
       <c r="J20">
-        <v>1.064086358234132</v>
+        <v>1.082827300949389</v>
       </c>
       <c r="K20">
-        <v>1.067116875728713</v>
+        <v>1.081530095413515</v>
       </c>
       <c r="L20">
-        <v>1.06237976815358</v>
+        <v>1.083525045988942</v>
       </c>
       <c r="M20">
-        <v>1.073053438720192</v>
+        <v>1.093512793516351</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.030329249372443</v>
+        <v>1.0755170120927</v>
       </c>
       <c r="D21">
-        <v>1.047995298237398</v>
+        <v>1.077202026696253</v>
       </c>
       <c r="E21">
-        <v>1.042733261143026</v>
+        <v>1.079091719689272</v>
       </c>
       <c r="F21">
-        <v>1.053414591938033</v>
+        <v>1.089080138646943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.066972246103466</v>
+        <v>1.065098549489319</v>
       </c>
       <c r="J21">
-        <v>1.058611455693036</v>
+        <v>1.08183047253541</v>
       </c>
       <c r="K21">
-        <v>1.062121070847145</v>
+        <v>1.080635286404863</v>
       </c>
       <c r="L21">
-        <v>1.056947875348327</v>
+        <v>1.082518538916599</v>
       </c>
       <c r="M21">
-        <v>1.067450062129782</v>
+        <v>1.092473322887284</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.025399951602844</v>
+        <v>1.074650805057516</v>
       </c>
       <c r="D22">
-        <v>1.044138745648116</v>
+        <v>1.076512766537886</v>
       </c>
       <c r="E22">
-        <v>1.038586968124136</v>
+        <v>1.078332477593226</v>
       </c>
       <c r="F22">
-        <v>1.049166308650724</v>
+        <v>1.088301529645892</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064791400279521</v>
+        <v>1.064775868326183</v>
       </c>
       <c r="J22">
-        <v>1.055064428747205</v>
+        <v>1.081202966927916</v>
       </c>
       <c r="K22">
-        <v>1.058883743681951</v>
+        <v>1.080071820592793</v>
       </c>
       <c r="L22">
-        <v>1.053430900953702</v>
+        <v>1.081885083155689</v>
       </c>
       <c r="M22">
-        <v>1.063822883742733</v>
+        <v>1.091819229376715</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.02802709508006</v>
+        <v>1.075110014258162</v>
       </c>
       <c r="D23">
-        <v>1.046193615098567</v>
+        <v>1.076878175452934</v>
       </c>
       <c r="E23">
-        <v>1.040796076988091</v>
+        <v>1.078734964876799</v>
       </c>
       <c r="F23">
-        <v>1.051429709070425</v>
+        <v>1.088714275724995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.06595461647526</v>
+        <v>1.064947061564191</v>
       </c>
       <c r="J23">
-        <v>1.056955105401457</v>
+        <v>1.081535691959733</v>
       </c>
       <c r="K23">
-        <v>1.060609400476964</v>
+        <v>1.080370606694718</v>
       </c>
       <c r="L23">
-        <v>1.055305348572706</v>
+        <v>1.082220949627523</v>
       </c>
       <c r="M23">
-        <v>1.065755988585746</v>
+        <v>1.092166027983998</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.038068992462553</v>
+        <v>1.076917524887247</v>
       </c>
       <c r="D24">
-        <v>1.054059152515436</v>
+        <v>1.078316339012849</v>
       </c>
       <c r="E24">
-        <v>1.049255157959909</v>
+        <v>1.080319555632598</v>
       </c>
       <c r="F24">
-        <v>1.060097719588095</v>
+        <v>1.090339430988218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.070380926182977</v>
+        <v>1.065618069346679</v>
       </c>
       <c r="J24">
-        <v>1.064176456511089</v>
+        <v>1.082844000114949</v>
       </c>
       <c r="K24">
-        <v>1.067199077117899</v>
+        <v>1.081545082434729</v>
       </c>
       <c r="L24">
-        <v>1.062469193795026</v>
+        <v>1.083541909703098</v>
       </c>
       <c r="M24">
-        <v>1.073145701000793</v>
+        <v>1.093530211354463</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.049158633728951</v>
+        <v>1.079014381391029</v>
       </c>
       <c r="D25">
-        <v>1.062764346389421</v>
+        <v>1.079984416128499</v>
       </c>
       <c r="E25">
-        <v>1.05862411209971</v>
+        <v>1.082158499029559</v>
       </c>
       <c r="F25">
-        <v>1.069700156100093</v>
+        <v>1.092225812340163</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07522648657678</v>
+        <v>1.066390622446641</v>
       </c>
       <c r="J25">
-        <v>1.072137767937352</v>
+        <v>1.084358949137674</v>
       </c>
       <c r="K25">
-        <v>1.074460635271693</v>
+        <v>1.082904267470118</v>
       </c>
       <c r="L25">
-        <v>1.0703757599316</v>
+        <v>1.085072125968345</v>
       </c>
       <c r="M25">
-        <v>1.081304909882459</v>
+        <v>1.095110967029838</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.080686369548288</v>
+        <v>1.05760193325069</v>
       </c>
       <c r="D2">
-        <v>1.081314231955256</v>
+        <v>1.06940425104495</v>
       </c>
       <c r="E2">
-        <v>1.083625367113356</v>
+        <v>1.065776184232979</v>
       </c>
       <c r="F2">
-        <v>1.093730810571756</v>
+        <v>1.077032101285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067001903477116</v>
+        <v>1.078879859530984</v>
       </c>
       <c r="J2">
-        <v>1.085564674350209</v>
+        <v>1.078186420515732</v>
       </c>
       <c r="K2">
-        <v>1.083985378331075</v>
+        <v>1.079974492067251</v>
       </c>
       <c r="L2">
-        <v>1.086290496804683</v>
+        <v>1.076389344668715</v>
       </c>
       <c r="M2">
-        <v>1.096369954386103</v>
+        <v>1.087513271705826</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.081900152883504</v>
+        <v>1.063522466380917</v>
       </c>
       <c r="D3">
-        <v>1.082279443728756</v>
+        <v>1.074065806397484</v>
       </c>
       <c r="E3">
-        <v>1.084690541199117</v>
+        <v>1.070800897013727</v>
       </c>
       <c r="F3">
-        <v>1.094823840609915</v>
+        <v>1.082184121125307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06744291583022</v>
+        <v>1.081420050035804</v>
       </c>
       <c r="J3">
-        <v>1.086438655726869</v>
+        <v>1.082419460484956</v>
       </c>
       <c r="K3">
-        <v>1.084768655942776</v>
+        <v>1.083831224840268</v>
       </c>
       <c r="L3">
-        <v>1.087173930016216</v>
+        <v>1.080601451154589</v>
       </c>
       <c r="M3">
-        <v>1.097283056065761</v>
+        <v>1.091863297274611</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.082685458684608</v>
+        <v>1.0672630662487</v>
       </c>
       <c r="D4">
-        <v>1.082903842965749</v>
+        <v>1.077013149353371</v>
       </c>
       <c r="E4">
-        <v>1.085379832326296</v>
+        <v>1.073979572380055</v>
       </c>
       <c r="F4">
-        <v>1.095531235005786</v>
+        <v>1.085443762714175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067726974172488</v>
+        <v>1.083014689303587</v>
       </c>
       <c r="J4">
-        <v>1.087003501696314</v>
+        <v>1.08508976011125</v>
       </c>
       <c r="K4">
-        <v>1.085274706203559</v>
+        <v>1.08626313006809</v>
       </c>
       <c r="L4">
-        <v>1.087745016320181</v>
+        <v>1.083260167919343</v>
       </c>
       <c r="M4">
-        <v>1.097873421732351</v>
+        <v>1.09460975298757</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.083015580419484</v>
+        <v>1.068814916440153</v>
       </c>
       <c r="D5">
-        <v>1.083166303299428</v>
+        <v>1.078236365445175</v>
       </c>
       <c r="E5">
-        <v>1.085669623548777</v>
+        <v>1.075299218299399</v>
       </c>
       <c r="F5">
-        <v>1.095828655638714</v>
+        <v>1.08679712526144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067846080079299</v>
+        <v>1.083673752558797</v>
       </c>
       <c r="J5">
-        <v>1.087240801340488</v>
+        <v>1.086196545059768</v>
       </c>
       <c r="K5">
-        <v>1.085487262998474</v>
+        <v>1.087270853058927</v>
       </c>
       <c r="L5">
-        <v>1.087984969089828</v>
+        <v>1.084362535125795</v>
       </c>
       <c r="M5">
-        <v>1.098121499118141</v>
+        <v>1.095748662009276</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.083071008133466</v>
+        <v>1.069074291412269</v>
       </c>
       <c r="D6">
-        <v>1.083210369384687</v>
+        <v>1.078440838292039</v>
       </c>
       <c r="E6">
-        <v>1.08571828156711</v>
+        <v>1.075519835389384</v>
       </c>
       <c r="F6">
-        <v>1.095878595770214</v>
+        <v>1.087023385111565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067866060190167</v>
+        <v>1.083783759802438</v>
       </c>
       <c r="J6">
-        <v>1.087280635542253</v>
+        <v>1.086381470303677</v>
       </c>
       <c r="K6">
-        <v>1.085522941288429</v>
+        <v>1.087439211593351</v>
       </c>
       <c r="L6">
-        <v>1.08802525050155</v>
+        <v>1.084546744596409</v>
       </c>
       <c r="M6">
-        <v>1.098163145835497</v>
+        <v>1.095938987319595</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.082689869867341</v>
+        <v>1.067283882275433</v>
       </c>
       <c r="D7">
-        <v>1.082907350118671</v>
+        <v>1.077029555435875</v>
       </c>
       <c r="E7">
-        <v>1.085383704477892</v>
+        <v>1.073997270126506</v>
       </c>
       <c r="F7">
-        <v>1.095535209028109</v>
+        <v>1.085461912226962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067728566897663</v>
+        <v>1.083023539699284</v>
       </c>
       <c r="J7">
-        <v>1.087006673139733</v>
+        <v>1.085104610310194</v>
       </c>
       <c r="K7">
-        <v>1.085277547130776</v>
+        <v>1.086276652121522</v>
       </c>
       <c r="L7">
-        <v>1.087748223098242</v>
+        <v>1.083274957336347</v>
       </c>
       <c r="M7">
-        <v>1.097876736995062</v>
+        <v>1.094625032007347</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.081096593495043</v>
+        <v>1.05962210356345</v>
       </c>
       <c r="D8">
-        <v>1.081640462703724</v>
+        <v>1.070994348289595</v>
       </c>
       <c r="E8">
-        <v>1.083985337293444</v>
+        <v>1.06748980167959</v>
       </c>
       <c r="F8">
-        <v>1.094100178512696</v>
+        <v>1.078789044611943</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067151216395424</v>
+        <v>1.079748740142842</v>
       </c>
       <c r="J8">
-        <v>1.085860181410225</v>
+        <v>1.079631639143883</v>
       </c>
       <c r="K8">
-        <v>1.084250253129278</v>
+        <v>1.081291440854023</v>
       </c>
       <c r="L8">
-        <v>1.086589172355008</v>
+        <v>1.077827071027077</v>
       </c>
       <c r="M8">
-        <v>1.096678639562403</v>
+        <v>1.08899793004604</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078288256736938</v>
+        <v>1.045383418914608</v>
       </c>
       <c r="D9">
-        <v>1.079406814918399</v>
+        <v>1.059798750954034</v>
       </c>
       <c r="E9">
-        <v>1.081521603372533</v>
+        <v>1.055431488545032</v>
       </c>
       <c r="F9">
-        <v>1.091572442080405</v>
+        <v>1.066427708865668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066123826274001</v>
+        <v>1.073582493057572</v>
       </c>
       <c r="J9">
-        <v>1.083834683858763</v>
+        <v>1.069429423378331</v>
       </c>
       <c r="K9">
-        <v>1.082434005563909</v>
+        <v>1.071990807964206</v>
       </c>
       <c r="L9">
-        <v>1.084542500478427</v>
+        <v>1.067684979087625</v>
       </c>
       <c r="M9">
-        <v>1.09456379083628</v>
+        <v>1.078527729450086</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.076415412255023</v>
+        <v>1.035325950119478</v>
       </c>
       <c r="D10">
-        <v>1.077916851078964</v>
+        <v>1.051908910201826</v>
       </c>
       <c r="E10">
-        <v>1.079879313134068</v>
+        <v>1.046942124658845</v>
       </c>
       <c r="F10">
-        <v>1.089887890111294</v>
+        <v>1.057727388327628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.065432128266147</v>
+        <v>1.069175169991869</v>
       </c>
       <c r="J10">
-        <v>1.082480780453503</v>
+        <v>1.062204853705919</v>
       </c>
       <c r="K10">
-        <v>1.081219080078009</v>
+        <v>1.065400182176996</v>
       </c>
       <c r="L10">
-        <v>1.083175129020921</v>
+        <v>1.060512572997254</v>
       </c>
       <c r="M10">
-        <v>1.093151392348076</v>
+        <v>1.071127116360154</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.075604280900414</v>
+        <v>1.030819711873885</v>
       </c>
       <c r="D11">
-        <v>1.077271465728614</v>
+        <v>1.048379257940554</v>
       </c>
       <c r="E11">
-        <v>1.079168218982717</v>
+        <v>1.043146131026214</v>
       </c>
       <c r="F11">
-        <v>1.089158592844756</v>
+        <v>1.053837638857063</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065131001947355</v>
+        <v>1.067188835813371</v>
       </c>
       <c r="J11">
-        <v>1.081893665542158</v>
+        <v>1.058964275524682</v>
       </c>
       <c r="K11">
-        <v>1.080692022600122</v>
+        <v>1.062443057841108</v>
       </c>
       <c r="L11">
-        <v>1.082582337180067</v>
+        <v>1.057297798655275</v>
       </c>
       <c r="M11">
-        <v>1.092539204261199</v>
+        <v>1.0678109849817</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.075302961965501</v>
+        <v>1.029121537270892</v>
       </c>
       <c r="D12">
-        <v>1.077031706740819</v>
+        <v>1.047050017287396</v>
       </c>
       <c r="E12">
-        <v>1.078904090117165</v>
+        <v>1.041716855707315</v>
       </c>
       <c r="F12">
-        <v>1.088887717047011</v>
+        <v>1.052373149238319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.065018906653415</v>
+        <v>1.066438598400584</v>
       </c>
       <c r="J12">
-        <v>1.081675453662155</v>
+        <v>1.057742587012151</v>
       </c>
       <c r="K12">
-        <v>1.080496100757731</v>
+        <v>1.061328110361137</v>
       </c>
       <c r="L12">
-        <v>1.082362039995718</v>
+        <v>1.056086211833683</v>
       </c>
       <c r="M12">
-        <v>1.092311717611416</v>
+        <v>1.066561340049702</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.075367597227633</v>
+        <v>1.029486931502474</v>
       </c>
       <c r="D13">
-        <v>1.0770831374167</v>
+        <v>1.047335985767806</v>
       </c>
       <c r="E13">
-        <v>1.078960746529895</v>
+        <v>1.04202433344812</v>
       </c>
       <c r="F13">
-        <v>1.088945820042463</v>
+        <v>1.052688198639949</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.065042962507966</v>
+        <v>1.066600101314814</v>
       </c>
       <c r="J13">
-        <v>1.081722266809985</v>
+        <v>1.05800547674847</v>
       </c>
       <c r="K13">
-        <v>1.08053813342667</v>
+        <v>1.061568036143145</v>
       </c>
       <c r="L13">
-        <v>1.082409299389723</v>
+        <v>1.056346910746591</v>
       </c>
       <c r="M13">
-        <v>1.09236051848354</v>
+        <v>1.066830221562948</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.075579374378904</v>
+        <v>1.030679847060564</v>
       </c>
       <c r="D14">
-        <v>1.077251647877423</v>
+        <v>1.048269760180974</v>
       </c>
       <c r="E14">
-        <v>1.079146385950103</v>
+        <v>1.04302838743609</v>
       </c>
       <c r="F14">
-        <v>1.089136201812411</v>
+        <v>1.053716992546863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065121741088266</v>
+        <v>1.067127078780378</v>
       </c>
       <c r="J14">
-        <v>1.081875630764609</v>
+        <v>1.058863664291087</v>
       </c>
       <c r="K14">
-        <v>1.080675830689405</v>
+        <v>1.062351239534946</v>
       </c>
       <c r="L14">
-        <v>1.082564129553498</v>
+        <v>1.057198011676134</v>
       </c>
       <c r="M14">
-        <v>1.092520402041682</v>
+        <v>1.067708060631668</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075709853417458</v>
+        <v>1.031411562898829</v>
       </c>
       <c r="D15">
-        <v>1.077355468183827</v>
+        <v>1.048842645508814</v>
       </c>
       <c r="E15">
-        <v>1.079260764910172</v>
+        <v>1.043644425242675</v>
       </c>
       <c r="F15">
-        <v>1.089253504614627</v>
+        <v>1.054348221009105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065170246874864</v>
+        <v>1.067450098115642</v>
       </c>
       <c r="J15">
-        <v>1.081970105929991</v>
+        <v>1.059390002321034</v>
       </c>
       <c r="K15">
-        <v>1.080760650713998</v>
+        <v>1.062831573405472</v>
       </c>
       <c r="L15">
-        <v>1.082659511197131</v>
+        <v>1.057720052987004</v>
       </c>
       <c r="M15">
-        <v>1.092618899258527</v>
+        <v>1.068246521047738</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.076469240465385</v>
+        <v>1.035621691306481</v>
       </c>
       <c r="D16">
-        <v>1.077959678442116</v>
+        <v>1.052140678792625</v>
       </c>
       <c r="E16">
-        <v>1.079926506614846</v>
+        <v>1.047191419831637</v>
       </c>
       <c r="F16">
-        <v>1.089936293707444</v>
+        <v>1.057982852726799</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.06545207890957</v>
+        <v>1.069305294835412</v>
       </c>
       <c r="J16">
-        <v>1.082519726994063</v>
+        <v>1.06241746080125</v>
       </c>
       <c r="K16">
-        <v>1.081254038273877</v>
+        <v>1.065594175029908</v>
       </c>
       <c r="L16">
-        <v>1.083214455591063</v>
+        <v>1.060723538146276</v>
       </c>
       <c r="M16">
-        <v>1.093192008308268</v>
+        <v>1.071344752376698</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076945535014761</v>
+        <v>1.038220986731571</v>
       </c>
       <c r="D17">
-        <v>1.07833862372198</v>
+        <v>1.054178335328791</v>
       </c>
       <c r="E17">
-        <v>1.080344115616414</v>
+        <v>1.049383376394831</v>
       </c>
       <c r="F17">
-        <v>1.09036462193219</v>
+        <v>1.060229118064417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.065628431411616</v>
+        <v>1.070447660176237</v>
       </c>
       <c r="J17">
-        <v>1.082864257131753</v>
+        <v>1.064285680447133</v>
       </c>
       <c r="K17">
-        <v>1.081563262386787</v>
+        <v>1.067298727255857</v>
       </c>
       <c r="L17">
-        <v>1.083562366434179</v>
+        <v>1.062577603863962</v>
       </c>
       <c r="M17">
-        <v>1.093551340354096</v>
+        <v>1.073257550508422</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.077223332590492</v>
+        <v>1.039722632316262</v>
       </c>
       <c r="D18">
-        <v>1.078559634812967</v>
+        <v>1.055356017041798</v>
       </c>
       <c r="E18">
-        <v>1.08058770269156</v>
+        <v>1.050650414544401</v>
       </c>
       <c r="F18">
-        <v>1.090614470657842</v>
+        <v>1.061527603004408</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065731138919414</v>
+        <v>1.071106514681477</v>
       </c>
       <c r="J18">
-        <v>1.083065132274109</v>
+        <v>1.065364627874199</v>
       </c>
       <c r="K18">
-        <v>1.081743532441508</v>
+        <v>1.068283066113012</v>
       </c>
       <c r="L18">
-        <v>1.083765228416611</v>
+        <v>1.063648603444574</v>
       </c>
       <c r="M18">
-        <v>1.093760873850521</v>
+        <v>1.074362564449928</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.077318051565926</v>
+        <v>1.040232245695773</v>
       </c>
       <c r="D19">
-        <v>1.078634990301643</v>
+        <v>1.055755769138144</v>
       </c>
       <c r="E19">
-        <v>1.08067076009929</v>
+        <v>1.05108052822871</v>
       </c>
       <c r="F19">
-        <v>1.09069966470498</v>
+        <v>1.061968400902601</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.065766133099684</v>
+        <v>1.071329921053084</v>
       </c>
       <c r="J19">
-        <v>1.083133611386652</v>
+        <v>1.065730729545459</v>
       </c>
       <c r="K19">
-        <v>1.081804983764316</v>
+        <v>1.068617050740323</v>
       </c>
       <c r="L19">
-        <v>1.083834387519954</v>
+        <v>1.064012046364092</v>
       </c>
       <c r="M19">
-        <v>1.093832309415538</v>
+        <v>1.074737564928452</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076894434887316</v>
+        <v>1.037943615895239</v>
       </c>
       <c r="D20">
-        <v>1.078297968687141</v>
+        <v>1.053960844189916</v>
       </c>
       <c r="E20">
-        <v>1.080299309839842</v>
+        <v>1.049149397578806</v>
       </c>
       <c r="F20">
-        <v>1.090318665121411</v>
+        <v>1.059989336471062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.065609526589977</v>
+        <v>1.070325872589981</v>
       </c>
       <c r="J20">
-        <v>1.082827300949389</v>
+        <v>1.064086358234133</v>
       </c>
       <c r="K20">
-        <v>1.081530095413515</v>
+        <v>1.067116875728713</v>
       </c>
       <c r="L20">
-        <v>1.083525045988942</v>
+        <v>1.06237976815358</v>
       </c>
       <c r="M20">
-        <v>1.093512793516351</v>
+        <v>1.073053438720193</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0755170120927</v>
+        <v>1.030329249372442</v>
       </c>
       <c r="D21">
-        <v>1.077202026696253</v>
+        <v>1.047995298237397</v>
       </c>
       <c r="E21">
-        <v>1.079091719689272</v>
+        <v>1.042733261143025</v>
       </c>
       <c r="F21">
-        <v>1.089080138646943</v>
+        <v>1.053414591938032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065098549489319</v>
+        <v>1.066972246103466</v>
       </c>
       <c r="J21">
-        <v>1.08183047253541</v>
+        <v>1.058611455693035</v>
       </c>
       <c r="K21">
-        <v>1.080635286404863</v>
+        <v>1.062121070847145</v>
       </c>
       <c r="L21">
-        <v>1.082518538916599</v>
+        <v>1.056947875348327</v>
       </c>
       <c r="M21">
-        <v>1.092473322887284</v>
+        <v>1.06745006212978</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.074650805057516</v>
+        <v>1.025399951602844</v>
       </c>
       <c r="D22">
-        <v>1.076512766537886</v>
+        <v>1.044138745648115</v>
       </c>
       <c r="E22">
-        <v>1.078332477593226</v>
+        <v>1.038586968124136</v>
       </c>
       <c r="F22">
-        <v>1.088301529645892</v>
+        <v>1.049166308650723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064775868326183</v>
+        <v>1.06479140027952</v>
       </c>
       <c r="J22">
-        <v>1.081202966927916</v>
+        <v>1.055064428747205</v>
       </c>
       <c r="K22">
-        <v>1.080071820592793</v>
+        <v>1.05888374368195</v>
       </c>
       <c r="L22">
-        <v>1.081885083155689</v>
+        <v>1.053430900953702</v>
       </c>
       <c r="M22">
-        <v>1.091819229376715</v>
+        <v>1.063822883742733</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.075110014258162</v>
+        <v>1.028027095080059</v>
       </c>
       <c r="D23">
-        <v>1.076878175452934</v>
+        <v>1.046193615098567</v>
       </c>
       <c r="E23">
-        <v>1.078734964876799</v>
+        <v>1.04079607698809</v>
       </c>
       <c r="F23">
-        <v>1.088714275724995</v>
+        <v>1.051429709070425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.064947061564191</v>
+        <v>1.06595461647526</v>
       </c>
       <c r="J23">
-        <v>1.081535691959733</v>
+        <v>1.056955105401456</v>
       </c>
       <c r="K23">
-        <v>1.080370606694718</v>
+        <v>1.060609400476963</v>
       </c>
       <c r="L23">
-        <v>1.082220949627523</v>
+        <v>1.055305348572706</v>
       </c>
       <c r="M23">
-        <v>1.092166027983998</v>
+        <v>1.065755988585746</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076917524887247</v>
+        <v>1.038068992462554</v>
       </c>
       <c r="D24">
-        <v>1.078316339012849</v>
+        <v>1.054059152515436</v>
       </c>
       <c r="E24">
-        <v>1.080319555632598</v>
+        <v>1.049255157959909</v>
       </c>
       <c r="F24">
-        <v>1.090339430988218</v>
+        <v>1.060097719588096</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.065618069346679</v>
+        <v>1.070380926182978</v>
       </c>
       <c r="J24">
-        <v>1.082844000114949</v>
+        <v>1.064176456511089</v>
       </c>
       <c r="K24">
-        <v>1.081545082434729</v>
+        <v>1.067199077117899</v>
       </c>
       <c r="L24">
-        <v>1.083541909703098</v>
+        <v>1.062469193795026</v>
       </c>
       <c r="M24">
-        <v>1.093530211354463</v>
+        <v>1.073145701000794</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079014381391029</v>
+        <v>1.049158633728951</v>
       </c>
       <c r="D25">
-        <v>1.079984416128499</v>
+        <v>1.062764346389422</v>
       </c>
       <c r="E25">
-        <v>1.082158499029559</v>
+        <v>1.05862411209971</v>
       </c>
       <c r="F25">
-        <v>1.092225812340163</v>
+        <v>1.069700156100093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066390622446641</v>
+        <v>1.07522648657678</v>
       </c>
       <c r="J25">
-        <v>1.084358949137674</v>
+        <v>1.072137767937351</v>
       </c>
       <c r="K25">
-        <v>1.082904267470118</v>
+        <v>1.074460635271693</v>
       </c>
       <c r="L25">
-        <v>1.085072125968345</v>
+        <v>1.0703757599316</v>
       </c>
       <c r="M25">
-        <v>1.095110967029838</v>
+        <v>1.081304909882459</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05760193325069</v>
+        <v>1.002434880934424</v>
       </c>
       <c r="D2">
-        <v>1.06940425104495</v>
+        <v>1.026253027151597</v>
       </c>
       <c r="E2">
-        <v>1.065776184232979</v>
+        <v>1.008547256993108</v>
       </c>
       <c r="F2">
-        <v>1.077032101285</v>
+        <v>1.030195495467939</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.078879859530984</v>
+        <v>1.049841067993591</v>
       </c>
       <c r="J2">
-        <v>1.078186420515732</v>
+        <v>1.02454300823128</v>
       </c>
       <c r="K2">
-        <v>1.079974492067251</v>
+        <v>1.037358341419299</v>
       </c>
       <c r="L2">
-        <v>1.076389344668715</v>
+        <v>1.019888785533822</v>
       </c>
       <c r="M2">
-        <v>1.087513271705826</v>
+        <v>1.041249596206051</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041218678656085</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037485848166219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063522466380917</v>
+        <v>1.006350336850366</v>
       </c>
       <c r="D3">
-        <v>1.074065806397484</v>
+        <v>1.028873015890607</v>
       </c>
       <c r="E3">
-        <v>1.070800897013727</v>
+        <v>1.011633194391925</v>
       </c>
       <c r="F3">
-        <v>1.082184121125307</v>
+        <v>1.03294642295174</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.081420050035804</v>
+        <v>1.050678574884378</v>
       </c>
       <c r="J3">
-        <v>1.082419460484956</v>
+        <v>1.026669369661337</v>
       </c>
       <c r="K3">
-        <v>1.083831224840268</v>
+        <v>1.039149323359659</v>
       </c>
       <c r="L3">
-        <v>1.080601451154589</v>
+        <v>1.022119359087885</v>
       </c>
       <c r="M3">
-        <v>1.091863297274611</v>
+        <v>1.043174412994015</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P3">
+        <v>1.042742038969038</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038749563979485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0672630662487</v>
+        <v>1.00883827866511</v>
       </c>
       <c r="D4">
-        <v>1.077013149353371</v>
+        <v>1.030539535878555</v>
       </c>
       <c r="E4">
-        <v>1.073979572380055</v>
+        <v>1.013600001585691</v>
       </c>
       <c r="F4">
-        <v>1.085443762714175</v>
+        <v>1.034700415266033</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.083014689303587</v>
+        <v>1.051196867120854</v>
       </c>
       <c r="J4">
-        <v>1.08508976011125</v>
+        <v>1.028018570938934</v>
       </c>
       <c r="K4">
-        <v>1.08626313006809</v>
+        <v>1.040282834713129</v>
       </c>
       <c r="L4">
-        <v>1.083260167919343</v>
+        <v>1.023537011486368</v>
       </c>
       <c r="M4">
-        <v>1.09460975298757</v>
+        <v>1.04439732632429</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043709889234003</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039551952248009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068814916440153</v>
+        <v>1.009876579963695</v>
       </c>
       <c r="D5">
-        <v>1.078236365445175</v>
+        <v>1.031237019015024</v>
       </c>
       <c r="E5">
-        <v>1.075299218299399</v>
+        <v>1.014422607755746</v>
       </c>
       <c r="F5">
-        <v>1.08679712526144</v>
+        <v>1.035434332140527</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.083673752558797</v>
+        <v>1.051411006936388</v>
       </c>
       <c r="J5">
-        <v>1.086196545059768</v>
+        <v>1.028582429658798</v>
       </c>
       <c r="K5">
-        <v>1.087270853058927</v>
+        <v>1.040756982920151</v>
       </c>
       <c r="L5">
-        <v>1.084362535125795</v>
+        <v>1.024129710506471</v>
       </c>
       <c r="M5">
-        <v>1.095748662009276</v>
+        <v>1.04490874407335</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044114640188589</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039894387093274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069074291412269</v>
+        <v>1.010053902428841</v>
       </c>
       <c r="D6">
-        <v>1.078440838292039</v>
+        <v>1.031358122865438</v>
       </c>
       <c r="E6">
-        <v>1.075519835389384</v>
+        <v>1.014563655521327</v>
       </c>
       <c r="F6">
-        <v>1.087023385111565</v>
+        <v>1.035560382015234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.083783759802438</v>
+        <v>1.051448866710611</v>
       </c>
       <c r="J6">
-        <v>1.086381470303677</v>
+        <v>1.028680255284765</v>
       </c>
       <c r="K6">
-        <v>1.087439211593351</v>
+        <v>1.040840585255449</v>
       </c>
       <c r="L6">
-        <v>1.084546744596409</v>
+        <v>1.024232175009461</v>
       </c>
       <c r="M6">
-        <v>1.095938987319595</v>
+        <v>1.044997446976251</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044184842235762</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03996224630054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067283882275433</v>
+        <v>1.008861851942416</v>
       </c>
       <c r="D7">
-        <v>1.077029555435875</v>
+        <v>1.030560606319322</v>
       </c>
       <c r="E7">
-        <v>1.073997270126506</v>
+        <v>1.013619973620464</v>
       </c>
       <c r="F7">
-        <v>1.085461912226962</v>
+        <v>1.03471873827693</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.083023539699284</v>
+        <v>1.051205713458987</v>
       </c>
       <c r="J7">
-        <v>1.085104610310194</v>
+        <v>1.028035546616589</v>
       </c>
       <c r="K7">
-        <v>1.086276652121522</v>
+        <v>1.040300786593624</v>
       </c>
       <c r="L7">
-        <v>1.083274957336347</v>
+        <v>1.02355380319445</v>
       </c>
       <c r="M7">
-        <v>1.094625032007347</v>
+        <v>1.04441257902656</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043721960671641</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039584762603538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05962210356345</v>
+        <v>1.003779756339009</v>
       </c>
       <c r="D8">
-        <v>1.070994348289595</v>
+        <v>1.027158898074399</v>
       </c>
       <c r="E8">
-        <v>1.06748980167959</v>
+        <v>1.009607646907973</v>
       </c>
       <c r="F8">
-        <v>1.078789044611943</v>
+        <v>1.03114110335443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.079748740142842</v>
+        <v>1.050136344562582</v>
       </c>
       <c r="J8">
-        <v>1.079631639143883</v>
+        <v>1.025278881172002</v>
       </c>
       <c r="K8">
-        <v>1.081291440854023</v>
+        <v>1.037983134509589</v>
       </c>
       <c r="L8">
-        <v>1.077827071027077</v>
+        <v>1.020659030407806</v>
       </c>
       <c r="M8">
-        <v>1.08899793004604</v>
+        <v>1.041915144796747</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041745415025529</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037950562589278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045383418914608</v>
+        <v>0.9944439624353574</v>
       </c>
       <c r="D9">
-        <v>1.059798750954034</v>
+        <v>1.020917982915537</v>
       </c>
       <c r="E9">
-        <v>1.055431488545032</v>
+        <v>1.002283752695258</v>
       </c>
       <c r="F9">
-        <v>1.066427708865668</v>
+        <v>1.024616393433516</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073582493057572</v>
+        <v>1.048058185142518</v>
       </c>
       <c r="J9">
-        <v>1.069429423378331</v>
+        <v>1.020194455892132</v>
       </c>
       <c r="K9">
-        <v>1.071990807964206</v>
+        <v>1.033680557963598</v>
       </c>
       <c r="L9">
-        <v>1.067684979087625</v>
+        <v>1.015339885953864</v>
       </c>
       <c r="M9">
-        <v>1.078527729450086</v>
+        <v>1.037322324249906</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038110502604504</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034905160725575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035325950119478</v>
+        <v>0.9880073044663753</v>
       </c>
       <c r="D10">
-        <v>1.051908910201826</v>
+        <v>1.016650377116899</v>
       </c>
       <c r="E10">
-        <v>1.046942124658845</v>
+        <v>0.9972774565333178</v>
       </c>
       <c r="F10">
-        <v>1.057727388327628</v>
+        <v>1.020233852913469</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069175169991869</v>
+        <v>1.046572881542789</v>
       </c>
       <c r="J10">
-        <v>1.062204853705919</v>
+        <v>1.01670495316978</v>
       </c>
       <c r="K10">
-        <v>1.065400182176996</v>
+        <v>1.030725373609213</v>
       </c>
       <c r="L10">
-        <v>1.060512572997254</v>
+        <v>1.011696041950389</v>
       </c>
       <c r="M10">
-        <v>1.071127116360154</v>
+        <v>1.034247142752917</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035728300976005</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032832507503255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030819711873885</v>
+        <v>0.9855764034500909</v>
       </c>
       <c r="D11">
-        <v>1.048379257940554</v>
+        <v>1.015199092576968</v>
       </c>
       <c r="E11">
-        <v>1.043146131026214</v>
+        <v>0.9954561005111929</v>
       </c>
       <c r="F11">
-        <v>1.053837638857063</v>
+        <v>1.019213188975859</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067188835813371</v>
+        <v>1.046119517021464</v>
       </c>
       <c r="J11">
-        <v>1.058964275524682</v>
+        <v>1.015561779751649</v>
       </c>
       <c r="K11">
-        <v>1.062443057841108</v>
+        <v>1.029839957774157</v>
       </c>
       <c r="L11">
-        <v>1.057297798655275</v>
+        <v>1.010464219896399</v>
       </c>
       <c r="M11">
-        <v>1.0678109849817</v>
+        <v>1.033781646078987</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035797473899483</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032239436939789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029121537270892</v>
+        <v>0.9847969141140431</v>
       </c>
       <c r="D12">
-        <v>1.047050017287396</v>
+        <v>1.014789378301049</v>
       </c>
       <c r="E12">
-        <v>1.041716855707315</v>
+        <v>0.9948975854932804</v>
       </c>
       <c r="F12">
-        <v>1.052373149238319</v>
+        <v>1.019141494403507</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.066438598400584</v>
+        <v>1.046014829814981</v>
       </c>
       <c r="J12">
-        <v>1.057742587012151</v>
+        <v>1.015258929579018</v>
       </c>
       <c r="K12">
-        <v>1.061328110361137</v>
+        <v>1.029638618227827</v>
       </c>
       <c r="L12">
-        <v>1.056086211833683</v>
+        <v>1.010123196962291</v>
       </c>
       <c r="M12">
-        <v>1.066561340049702</v>
+        <v>1.033910937627101</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036226997627043</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032097082378369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029486931502474</v>
+        <v>0.9852529519372595</v>
       </c>
       <c r="D13">
-        <v>1.047335985767806</v>
+        <v>1.015172844114569</v>
       </c>
       <c r="E13">
-        <v>1.04202433344812</v>
+        <v>0.9952860340307166</v>
       </c>
       <c r="F13">
-        <v>1.052688198639949</v>
+        <v>1.019820720688641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.066600101314814</v>
+        <v>1.046186787607606</v>
       </c>
       <c r="J13">
-        <v>1.05800547674847</v>
+        <v>1.015599859595059</v>
       </c>
       <c r="K13">
-        <v>1.061568036143145</v>
+        <v>1.029971939304603</v>
       </c>
       <c r="L13">
-        <v>1.056346910746591</v>
+        <v>1.01045976731769</v>
       </c>
       <c r="M13">
-        <v>1.066830221562948</v>
+        <v>1.034534996706273</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036997698585759</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03233025107848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030679847060564</v>
+        <v>0.9861310318654806</v>
       </c>
       <c r="D14">
-        <v>1.048269760180974</v>
+        <v>1.015800029855399</v>
       </c>
       <c r="E14">
-        <v>1.04302838743609</v>
+        <v>0.9959860875739301</v>
       </c>
       <c r="F14">
-        <v>1.053716992546863</v>
+        <v>1.020634592606711</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067127078780378</v>
+        <v>1.046431862539191</v>
       </c>
       <c r="J14">
-        <v>1.058863664291087</v>
+        <v>1.016128875581403</v>
       </c>
       <c r="K14">
-        <v>1.062351239534946</v>
+        <v>1.030446594201007</v>
       </c>
       <c r="L14">
-        <v>1.057198011676134</v>
+        <v>1.011001168300227</v>
       </c>
       <c r="M14">
-        <v>1.067708060631668</v>
+        <v>1.035194060028014</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037692289199694</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032667279674464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031411562898829</v>
+        <v>0.9866201537906487</v>
       </c>
       <c r="D15">
-        <v>1.048842645508814</v>
+        <v>1.016134532420673</v>
       </c>
       <c r="E15">
-        <v>1.043644425242675</v>
+        <v>0.9963690934926476</v>
       </c>
       <c r="F15">
-        <v>1.054348221009105</v>
+        <v>1.021013371568788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067450098115642</v>
+        <v>1.046556402274319</v>
       </c>
       <c r="J15">
-        <v>1.059390002321034</v>
+        <v>1.016405811497385</v>
       </c>
       <c r="K15">
-        <v>1.062831573405472</v>
+        <v>1.030688182967514</v>
       </c>
       <c r="L15">
-        <v>1.057720052987004</v>
+        <v>1.011287499341016</v>
       </c>
       <c r="M15">
-        <v>1.068246521047738</v>
+        <v>1.03547980706359</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037955733132846</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032843982960159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035621691306481</v>
+        <v>0.9892651340257078</v>
       </c>
       <c r="D16">
-        <v>1.052140678792625</v>
+        <v>1.017880935493735</v>
       </c>
       <c r="E16">
-        <v>1.047191419831637</v>
+        <v>0.9984135679530219</v>
       </c>
       <c r="F16">
-        <v>1.057982852726799</v>
+        <v>1.022777871135599</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069305294835412</v>
+        <v>1.047176622811107</v>
       </c>
       <c r="J16">
-        <v>1.06241746080125</v>
+        <v>1.017833061327977</v>
       </c>
       <c r="K16">
-        <v>1.065594175029908</v>
+        <v>1.031898926276589</v>
       </c>
       <c r="L16">
-        <v>1.060723538146276</v>
+        <v>1.012774762954802</v>
       </c>
       <c r="M16">
-        <v>1.071344752376698</v>
+        <v>1.036712185358025</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038891031342813</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03370320165821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038220986731571</v>
+        <v>0.990835986140289</v>
       </c>
       <c r="D17">
-        <v>1.054178335328791</v>
+        <v>1.018893165603378</v>
       </c>
       <c r="E17">
-        <v>1.049383376394831</v>
+        <v>0.9996184825008846</v>
       </c>
       <c r="F17">
-        <v>1.060229118064417</v>
+        <v>1.02370078096089</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.070447660176237</v>
+        <v>1.047520666588474</v>
       </c>
       <c r="J17">
-        <v>1.064285680447133</v>
+        <v>1.018650936613702</v>
       </c>
       <c r="K17">
-        <v>1.067298727255857</v>
+        <v>1.032577844659964</v>
       </c>
       <c r="L17">
-        <v>1.062577603863962</v>
+        <v>1.013633204409267</v>
       </c>
       <c r="M17">
-        <v>1.073257550508422</v>
+        <v>1.037305630658206</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039230893601987</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03418581855176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039722632316262</v>
+        <v>0.991615464773384</v>
       </c>
       <c r="D18">
-        <v>1.055356017041798</v>
+        <v>1.019343421778911</v>
       </c>
       <c r="E18">
-        <v>1.050650414544401</v>
+        <v>1.000196020723813</v>
       </c>
       <c r="F18">
-        <v>1.061527603004408</v>
+        <v>1.023933282342332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.071106514681477</v>
+        <v>1.047649330538182</v>
       </c>
       <c r="J18">
-        <v>1.065364627874199</v>
+        <v>1.018999015318047</v>
       </c>
       <c r="K18">
-        <v>1.068283066113012</v>
+        <v>1.032836411890952</v>
       </c>
       <c r="L18">
-        <v>1.063648603444574</v>
+        <v>1.014011371452379</v>
       </c>
       <c r="M18">
-        <v>1.074362564449928</v>
+        <v>1.037351299741848</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039028940557046</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034356966499164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040232245695773</v>
+        <v>0.991672980244943</v>
       </c>
       <c r="D19">
-        <v>1.055755769138144</v>
+        <v>1.019282491081818</v>
       </c>
       <c r="E19">
-        <v>1.05108052822871</v>
+        <v>1.000201041215032</v>
       </c>
       <c r="F19">
-        <v>1.061968400902601</v>
+        <v>1.023529653269114</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.071329921053084</v>
+        <v>1.047584433179466</v>
       </c>
       <c r="J19">
-        <v>1.065730729545459</v>
+        <v>1.018917814850615</v>
       </c>
       <c r="K19">
-        <v>1.068617050740323</v>
+        <v>1.0327136776518</v>
       </c>
       <c r="L19">
-        <v>1.064012046364092</v>
+        <v>1.013951780526141</v>
       </c>
       <c r="M19">
-        <v>1.074737564928452</v>
+        <v>1.036891794822536</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038339502614652</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034276601188347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037943615895239</v>
+        <v>0.9897009253292979</v>
       </c>
       <c r="D20">
-        <v>1.053960844189916</v>
+        <v>1.017785163834762</v>
       </c>
       <c r="E20">
-        <v>1.049149397578806</v>
+        <v>0.998596191982838</v>
       </c>
       <c r="F20">
-        <v>1.059989336471062</v>
+        <v>1.021392151488965</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.070325872589981</v>
+        <v>1.046978026140201</v>
       </c>
       <c r="J20">
-        <v>1.064086358234133</v>
+        <v>1.017634714365189</v>
       </c>
       <c r="K20">
-        <v>1.067116875728713</v>
+        <v>1.031522329081678</v>
       </c>
       <c r="L20">
-        <v>1.06237976815358</v>
+        <v>1.012663770657599</v>
       </c>
       <c r="M20">
-        <v>1.073053438720193</v>
+        <v>1.03506899379815</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036368127524457</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033438202023838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030329249372442</v>
+        <v>0.984780804040529</v>
       </c>
       <c r="D21">
-        <v>1.047995298237397</v>
+        <v>1.014495659534016</v>
       </c>
       <c r="E21">
-        <v>1.042733261143025</v>
+        <v>0.9947703955459948</v>
       </c>
       <c r="F21">
-        <v>1.053414591938032</v>
+        <v>1.017932621278843</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.066972246103466</v>
+        <v>1.045793649515348</v>
       </c>
       <c r="J21">
-        <v>1.058611455693035</v>
+        <v>1.014928908627436</v>
       </c>
       <c r="K21">
-        <v>1.062121070847145</v>
+        <v>1.029207514620864</v>
       </c>
       <c r="L21">
-        <v>1.056947875348327</v>
+        <v>1.009851526369601</v>
       </c>
       <c r="M21">
-        <v>1.06745006212978</v>
+        <v>1.032582036895077</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034358860604891</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031804775569517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025399951602844</v>
+        <v>0.9816402813599368</v>
       </c>
       <c r="D22">
-        <v>1.044138745648115</v>
+        <v>1.012405322993187</v>
       </c>
       <c r="E22">
-        <v>1.038586968124136</v>
+        <v>0.9923387948735373</v>
       </c>
       <c r="F22">
-        <v>1.049166308650723</v>
+        <v>1.015771677794623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.06479140027952</v>
+        <v>1.045028583267982</v>
       </c>
       <c r="J22">
-        <v>1.055064428747205</v>
+        <v>1.013207999815443</v>
       </c>
       <c r="K22">
-        <v>1.05888374368195</v>
+        <v>1.027734969706275</v>
       </c>
       <c r="L22">
-        <v>1.053430900953702</v>
+        <v>1.008063564984049</v>
       </c>
       <c r="M22">
-        <v>1.063822883742733</v>
+        <v>1.031037038356191</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03313608625257</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030750055103588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028027095080059</v>
+        <v>0.9833026023363635</v>
       </c>
       <c r="D23">
-        <v>1.046193615098567</v>
+        <v>1.013507126825778</v>
       </c>
       <c r="E23">
-        <v>1.04079607698809</v>
+        <v>0.9936236108060794</v>
       </c>
       <c r="F23">
-        <v>1.051429709070425</v>
+        <v>1.016913319932574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.06595461647526</v>
+        <v>1.045431836425431</v>
       </c>
       <c r="J23">
-        <v>1.056955105401456</v>
+        <v>1.014115397664133</v>
       </c>
       <c r="K23">
-        <v>1.060609400476963</v>
+        <v>1.028508943646732</v>
       </c>
       <c r="L23">
-        <v>1.055305348572706</v>
+        <v>1.009006684562836</v>
       </c>
       <c r="M23">
-        <v>1.065755988585746</v>
+        <v>1.031851774836412</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033780901931178</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031287614483255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038068992462554</v>
+        <v>0.9897262240732334</v>
       </c>
       <c r="D24">
-        <v>1.054059152515436</v>
+        <v>1.017779806600401</v>
       </c>
       <c r="E24">
-        <v>1.049255157959909</v>
+        <v>0.9986078999387826</v>
       </c>
       <c r="F24">
-        <v>1.060097719588096</v>
+        <v>1.021345239985525</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.070380926182978</v>
+        <v>1.046967100950255</v>
       </c>
       <c r="J24">
-        <v>1.064176456511089</v>
+        <v>1.017625571982348</v>
       </c>
       <c r="K24">
-        <v>1.067199077117899</v>
+        <v>1.031501721111617</v>
       </c>
       <c r="L24">
-        <v>1.062469193795026</v>
+        <v>1.012659506597919</v>
       </c>
       <c r="M24">
-        <v>1.073145701000794</v>
+        <v>1.035007599029433</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036278544337074</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033396136249522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049158633728951</v>
+        <v>0.9969182407089408</v>
       </c>
       <c r="D25">
-        <v>1.062764346389422</v>
+        <v>1.02257752168617</v>
       </c>
       <c r="E25">
-        <v>1.05862411209971</v>
+        <v>1.004221112013122</v>
       </c>
       <c r="F25">
-        <v>1.069700156100093</v>
+        <v>1.026341880230643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07522648657678</v>
+        <v>1.048626894334263</v>
       </c>
       <c r="J25">
-        <v>1.072137767937351</v>
+        <v>1.02154976531708</v>
       </c>
       <c r="K25">
-        <v>1.074460635271693</v>
+        <v>1.034835176658487</v>
       </c>
       <c r="L25">
-        <v>1.0703757599316</v>
+        <v>1.016754252162722</v>
       </c>
       <c r="M25">
-        <v>1.081304909882459</v>
+        <v>1.038544585572186</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039077843057633</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035750200920122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002434880934424</v>
+        <v>1.001747405256355</v>
       </c>
       <c r="D2">
-        <v>1.026253027151597</v>
+        <v>1.025289188431524</v>
       </c>
       <c r="E2">
-        <v>1.008547256993108</v>
+        <v>1.007963210475448</v>
       </c>
       <c r="F2">
-        <v>1.030195495467939</v>
+        <v>1.029500164892003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049841067993591</v>
+        <v>1.049351707626504</v>
       </c>
       <c r="J2">
-        <v>1.02454300823128</v>
+        <v>1.023875977052199</v>
       </c>
       <c r="K2">
-        <v>1.037358341419299</v>
+        <v>1.036407098239332</v>
       </c>
       <c r="L2">
-        <v>1.019888785533822</v>
+        <v>1.019312708813422</v>
       </c>
       <c r="M2">
-        <v>1.041249596206051</v>
+        <v>1.040563262472725</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041218678656085</v>
+        <v>1.040675491860114</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037485848166219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036822022567404</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021768762615571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006350336850366</v>
+        <v>1.005539713086254</v>
       </c>
       <c r="D3">
-        <v>1.028873015890607</v>
+        <v>1.027740955965501</v>
       </c>
       <c r="E3">
-        <v>1.011633194391925</v>
+        <v>1.010940251927819</v>
       </c>
       <c r="F3">
-        <v>1.03294642295174</v>
+        <v>1.032130439916591</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050678574884378</v>
+        <v>1.050103205278443</v>
       </c>
       <c r="J3">
-        <v>1.026669369661337</v>
+        <v>1.025880490760383</v>
       </c>
       <c r="K3">
-        <v>1.039149323359659</v>
+        <v>1.038030775898982</v>
       </c>
       <c r="L3">
-        <v>1.022119359087885</v>
+        <v>1.021435038065418</v>
       </c>
       <c r="M3">
-        <v>1.043174412994015</v>
+        <v>1.04236807104516</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042742038969038</v>
+        <v>1.042103875076679</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038749563979485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037967160952546</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022099988952117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00883827866511</v>
+        <v>1.007950269555499</v>
       </c>
       <c r="D4">
-        <v>1.030539535878555</v>
+        <v>1.029301189343756</v>
       </c>
       <c r="E4">
-        <v>1.013600001585691</v>
+        <v>1.012838562847643</v>
       </c>
       <c r="F4">
-        <v>1.034700415266033</v>
+        <v>1.03380832228591</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051196867120854</v>
+        <v>1.050567045663143</v>
       </c>
       <c r="J4">
-        <v>1.028018570938934</v>
+        <v>1.02715277004695</v>
       </c>
       <c r="K4">
-        <v>1.040282834713129</v>
+        <v>1.039058383127164</v>
       </c>
       <c r="L4">
-        <v>1.023537011486368</v>
+        <v>1.022784468342314</v>
       </c>
       <c r="M4">
-        <v>1.04439732632429</v>
+        <v>1.04351514020506</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043709889234003</v>
+        <v>1.043011700826102</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039551952248009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038694747351186</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022307147797981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009876579963695</v>
+        <v>1.008956499065076</v>
       </c>
       <c r="D5">
-        <v>1.031237019015024</v>
+        <v>1.029954545476027</v>
       </c>
       <c r="E5">
-        <v>1.014422607755746</v>
+        <v>1.013632755405288</v>
       </c>
       <c r="F5">
-        <v>1.035434332140527</v>
+        <v>1.034510661692251</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051411006936388</v>
+        <v>1.050758552738751</v>
       </c>
       <c r="J5">
-        <v>1.028582429658798</v>
+        <v>1.02768467126592</v>
       </c>
       <c r="K5">
-        <v>1.040756982920151</v>
+        <v>1.039488518534343</v>
       </c>
       <c r="L5">
-        <v>1.024129710506471</v>
+        <v>1.023348837193797</v>
       </c>
       <c r="M5">
-        <v>1.04490874407335</v>
+        <v>1.043995058993535</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044114640188589</v>
+        <v>1.043391522952943</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039894387093274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039006773634014</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02239368003464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010053902428841</v>
+        <v>1.00912838838667</v>
       </c>
       <c r="D6">
-        <v>1.031358122865438</v>
+        <v>1.030068230903346</v>
       </c>
       <c r="E6">
-        <v>1.014563655521327</v>
+        <v>1.013768973009823</v>
       </c>
       <c r="F6">
-        <v>1.035560382015234</v>
+        <v>1.034631396866728</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051448866710611</v>
+        <v>1.050792606177536</v>
       </c>
       <c r="J6">
-        <v>1.028680255284765</v>
+        <v>1.027777080042948</v>
       </c>
       <c r="K6">
-        <v>1.040840585255449</v>
+        <v>1.039564719299571</v>
       </c>
       <c r="L6">
-        <v>1.024232175009461</v>
+        <v>1.023446484605292</v>
       </c>
       <c r="M6">
-        <v>1.044997446976251</v>
+        <v>1.04407845882736</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044184842235762</v>
+        <v>1.043457528063235</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03996224630054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039070269931066</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022409486043757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008861851942416</v>
+        <v>1.007973188673392</v>
       </c>
       <c r="D7">
-        <v>1.030560606319322</v>
+        <v>1.029321543874276</v>
       </c>
       <c r="E7">
-        <v>1.013619973620464</v>
+        <v>1.01285790993646</v>
       </c>
       <c r="F7">
-        <v>1.03471873827693</v>
+        <v>1.033826110789008</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051205713458987</v>
+        <v>1.050575525243844</v>
       </c>
       <c r="J7">
-        <v>1.028035546616589</v>
+        <v>1.027169098425799</v>
       </c>
       <c r="K7">
-        <v>1.040300786593624</v>
+        <v>1.039075621806231</v>
       </c>
       <c r="L7">
-        <v>1.02355380319445</v>
+        <v>1.022800638996203</v>
       </c>
       <c r="M7">
-        <v>1.04441257902656</v>
+        <v>1.043529860608319</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043721960671641</v>
+        <v>1.043023350997802</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039584762603538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038729056776021</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022311993999002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003779756339009</v>
+        <v>1.0030498301152</v>
       </c>
       <c r="D8">
-        <v>1.027158898074399</v>
+        <v>1.026137471222453</v>
       </c>
       <c r="E8">
-        <v>1.009607646907973</v>
+        <v>1.00898601243213</v>
       </c>
       <c r="F8">
-        <v>1.03114110335443</v>
+        <v>1.030404408008938</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050136344562582</v>
+        <v>1.049617563540791</v>
       </c>
       <c r="J8">
-        <v>1.025278881172002</v>
+        <v>1.024569931673528</v>
       </c>
       <c r="K8">
-        <v>1.037983134509589</v>
+        <v>1.03697466094849</v>
       </c>
       <c r="L8">
-        <v>1.020659030407806</v>
+        <v>1.020045622850048</v>
       </c>
       <c r="M8">
-        <v>1.041915144796747</v>
+        <v>1.041187698886373</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041745415025529</v>
+        <v>1.041169691124755</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037950562589278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037248542440886</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021886736633144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9944439624353574</v>
+        <v>0.9940130779975128</v>
       </c>
       <c r="D9">
-        <v>1.020917982915537</v>
+        <v>1.020301053903951</v>
       </c>
       <c r="E9">
-        <v>1.002283752695258</v>
+        <v>1.001926049424273</v>
       </c>
       <c r="F9">
-        <v>1.024616393433516</v>
+        <v>1.024170625471245</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048058185142518</v>
+        <v>1.047745586285031</v>
       </c>
       <c r="J9">
-        <v>1.020194455892132</v>
+        <v>1.019779035819135</v>
       </c>
       <c r="K9">
-        <v>1.033680557963598</v>
+        <v>1.033073128749941</v>
       </c>
       <c r="L9">
-        <v>1.015339885953864</v>
+        <v>1.014987954921191</v>
       </c>
       <c r="M9">
-        <v>1.037322324249906</v>
+        <v>1.03688335594393</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038110502604504</v>
+        <v>1.037763087381065</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034905160725575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034486433358141</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021075382736428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9880073044663753</v>
+        <v>0.9877848425767344</v>
       </c>
       <c r="D10">
-        <v>1.016650377116899</v>
+        <v>1.016313070866472</v>
       </c>
       <c r="E10">
-        <v>0.9972774565333178</v>
+        <v>0.997102511247155</v>
       </c>
       <c r="F10">
-        <v>1.020233852913469</v>
+        <v>1.019989885800824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046572881542789</v>
+        <v>1.046402228324323</v>
       </c>
       <c r="J10">
-        <v>1.01670495316978</v>
+        <v>1.016491627781514</v>
       </c>
       <c r="K10">
-        <v>1.030725373609213</v>
+        <v>1.030393904688632</v>
       </c>
       <c r="L10">
-        <v>1.011696041950389</v>
+        <v>1.011524278561316</v>
       </c>
       <c r="M10">
-        <v>1.034247142752917</v>
+        <v>1.03400735892248</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035728300976005</v>
+        <v>1.035538538771111</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032832507503255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032610592898294</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020510914805839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9855764034500909</v>
+        <v>0.9854056588373107</v>
       </c>
       <c r="D11">
-        <v>1.015199092576968</v>
+        <v>1.014943917107183</v>
       </c>
       <c r="E11">
-        <v>0.9954561005111929</v>
+        <v>0.9953223948482161</v>
       </c>
       <c r="F11">
-        <v>1.019213188975859</v>
+        <v>1.019027582625791</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046119517021464</v>
+        <v>1.045990497762634</v>
       </c>
       <c r="J11">
-        <v>1.015561779751649</v>
+        <v>1.0153984404839</v>
       </c>
       <c r="K11">
-        <v>1.029839957774157</v>
+        <v>1.029589410461528</v>
       </c>
       <c r="L11">
-        <v>1.010464219896399</v>
+        <v>1.010333066382957</v>
       </c>
       <c r="M11">
-        <v>1.033781646078987</v>
+        <v>1.033599371437894</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035797473899483</v>
+        <v>1.035653296815498</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032239436939789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032077967676957</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020377801269503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9847969141140431</v>
+        <v>0.9846328283044964</v>
       </c>
       <c r="D12">
-        <v>1.014789378301049</v>
+        <v>1.014552123511484</v>
       </c>
       <c r="E12">
-        <v>0.9948975854932804</v>
+        <v>0.9947666523494568</v>
       </c>
       <c r="F12">
-        <v>1.019141494403507</v>
+        <v>1.018968320185601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046014829814981</v>
+        <v>1.045894898682804</v>
       </c>
       <c r="J12">
-        <v>1.015258929579018</v>
+        <v>1.015102100423508</v>
       </c>
       <c r="K12">
-        <v>1.029638618227827</v>
+        <v>1.029405739186712</v>
       </c>
       <c r="L12">
-        <v>1.010123196962291</v>
+        <v>1.009994806574086</v>
       </c>
       <c r="M12">
-        <v>1.033910937627101</v>
+        <v>1.033740921635283</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036226997627043</v>
+        <v>1.036092562763861</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032097082378369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031948107926184</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020363891542688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9852529519372595</v>
+        <v>0.9850604376808848</v>
       </c>
       <c r="D13">
-        <v>1.015172844114569</v>
+        <v>1.014904362258264</v>
       </c>
       <c r="E13">
-        <v>0.9952860340307166</v>
+        <v>0.9951277689770612</v>
       </c>
       <c r="F13">
-        <v>1.019820720688641</v>
+        <v>1.019624837674904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046186787607606</v>
+        <v>1.046051063042403</v>
       </c>
       <c r="J13">
-        <v>1.015599859595059</v>
+        <v>1.015415817083078</v>
       </c>
       <c r="K13">
-        <v>1.029971939304603</v>
+        <v>1.029708387895491</v>
       </c>
       <c r="L13">
-        <v>1.01045976731769</v>
+        <v>1.010304562443275</v>
       </c>
       <c r="M13">
-        <v>1.034534996706273</v>
+        <v>1.034342668060923</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036997698585759</v>
+        <v>1.036845659074868</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03233025107848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032159342302124</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020448258658033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9861310318654806</v>
+        <v>0.9859034704962667</v>
       </c>
       <c r="D14">
-        <v>1.015800029855399</v>
+        <v>1.01548801447689</v>
       </c>
       <c r="E14">
-        <v>0.9959860875739301</v>
+        <v>0.9957957626485514</v>
       </c>
       <c r="F14">
-        <v>1.020634592606711</v>
+        <v>1.020407412697397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046431862539191</v>
+        <v>1.046274103220159</v>
       </c>
       <c r="J14">
-        <v>1.016128875581403</v>
+        <v>1.015911182853821</v>
       </c>
       <c r="K14">
-        <v>1.030446594201007</v>
+        <v>1.030140236983657</v>
       </c>
       <c r="L14">
-        <v>1.011001168300227</v>
+        <v>1.010814476245013</v>
       </c>
       <c r="M14">
-        <v>1.035194060028014</v>
+        <v>1.03497094886819</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037692289199694</v>
+        <v>1.03751593939679</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032667279674464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032466238455254</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020551514169826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9866201537906487</v>
+        <v>0.9863757032257134</v>
       </c>
       <c r="D15">
-        <v>1.016134532420673</v>
+        <v>1.015800445558374</v>
       </c>
       <c r="E15">
-        <v>0.9963690934926476</v>
+        <v>0.9961637405683482</v>
       </c>
       <c r="F15">
-        <v>1.021013371568788</v>
+        <v>1.020770343197626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046556402274319</v>
+        <v>1.04638746555058</v>
       </c>
       <c r="J15">
-        <v>1.016405811497385</v>
+        <v>1.016171867872991</v>
       </c>
       <c r="K15">
-        <v>1.030688182967514</v>
+        <v>1.030360108137278</v>
       </c>
       <c r="L15">
-        <v>1.011287499341016</v>
+        <v>1.01108603535971</v>
       </c>
       <c r="M15">
-        <v>1.03547980706359</v>
+        <v>1.035241097508772</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037955733132846</v>
+        <v>1.037767059140212</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032843982960159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032628156580884</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020600869929319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9892651340257078</v>
+        <v>0.9889370603222886</v>
       </c>
       <c r="D16">
-        <v>1.017880935493735</v>
+        <v>1.017433084916057</v>
       </c>
       <c r="E16">
-        <v>0.9984135679530219</v>
+        <v>0.9981357580485324</v>
       </c>
       <c r="F16">
-        <v>1.022777871135599</v>
+        <v>1.022453003145364</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047176622811107</v>
+        <v>1.046950022099443</v>
       </c>
       <c r="J16">
-        <v>1.017833061327977</v>
+        <v>1.017518371894676</v>
       </c>
       <c r="K16">
-        <v>1.031898926276589</v>
+        <v>1.031458780339699</v>
       </c>
       <c r="L16">
-        <v>1.012774762954802</v>
+        <v>1.012501976748969</v>
       </c>
       <c r="M16">
-        <v>1.036712185358025</v>
+        <v>1.036392836512166</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038891031342813</v>
+        <v>1.038638613496779</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03370320165821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033408431315661</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02083315037874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.990835986140289</v>
+        <v>0.9904619544438474</v>
       </c>
       <c r="D17">
-        <v>1.018893165603378</v>
+        <v>1.018380807543279</v>
       </c>
       <c r="E17">
-        <v>0.9996184825008846</v>
+        <v>0.9993016221907431</v>
       </c>
       <c r="F17">
-        <v>1.02370078096089</v>
+        <v>1.023329431981955</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047520666588474</v>
+        <v>1.047261328164861</v>
       </c>
       <c r="J17">
-        <v>1.018650936613702</v>
+        <v>1.018291665214308</v>
       </c>
       <c r="K17">
-        <v>1.032577844659964</v>
+        <v>1.032074051463032</v>
       </c>
       <c r="L17">
-        <v>1.013633204409267</v>
+        <v>1.01332190759018</v>
       </c>
       <c r="M17">
-        <v>1.037305630658206</v>
+        <v>1.036940413444583</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039230893601987</v>
+        <v>1.038942191897733</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03418581855176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03384629207124</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020956357301083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.991615464773384</v>
+        <v>0.9912258704228778</v>
       </c>
       <c r="D18">
-        <v>1.019343421778911</v>
+        <v>1.018805247440704</v>
       </c>
       <c r="E18">
-        <v>1.000196020723813</v>
+        <v>0.9998674553955236</v>
       </c>
       <c r="F18">
-        <v>1.023933282342332</v>
+        <v>1.023543292030527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047649330538182</v>
+        <v>1.047376865491377</v>
       </c>
       <c r="J18">
-        <v>1.018999015318047</v>
+        <v>1.018624501576451</v>
       </c>
       <c r="K18">
-        <v>1.032836411890952</v>
+        <v>1.032307085231162</v>
       </c>
       <c r="L18">
-        <v>1.014011371452379</v>
+        <v>1.013688477124236</v>
       </c>
       <c r="M18">
-        <v>1.037351299741848</v>
+        <v>1.03696764612</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039028940557046</v>
+        <v>1.038725601559154</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034356966499164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033998247014498</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020989627847825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.991672980244943</v>
+        <v>0.9912977443252272</v>
       </c>
       <c r="D19">
-        <v>1.019282491081818</v>
+        <v>1.018756205624708</v>
       </c>
       <c r="E19">
-        <v>1.000201041215032</v>
+        <v>0.9998876125495788</v>
       </c>
       <c r="F19">
-        <v>1.023529653269114</v>
+        <v>1.023148358344912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047584433179466</v>
+        <v>1.047317969525986</v>
       </c>
       <c r="J19">
-        <v>1.018917814850615</v>
+        <v>1.018557015937522</v>
       </c>
       <c r="K19">
-        <v>1.0327136776518</v>
+        <v>1.032195999413131</v>
       </c>
       <c r="L19">
-        <v>1.013951780526141</v>
+        <v>1.01364373238185</v>
       </c>
       <c r="M19">
-        <v>1.036891794822536</v>
+        <v>1.036516668441879</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038339502614652</v>
+        <v>1.038042808420776</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034276601188347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033926744214039</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020942029049933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9897009253292979</v>
+        <v>0.9894227772589161</v>
       </c>
       <c r="D20">
-        <v>1.017785163834762</v>
+        <v>1.017374292603362</v>
       </c>
       <c r="E20">
-        <v>0.998596191982838</v>
+        <v>0.9983722814397864</v>
       </c>
       <c r="F20">
-        <v>1.021392151488965</v>
+        <v>1.021094925829097</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046978026140201</v>
+        <v>1.046770073548499</v>
       </c>
       <c r="J20">
-        <v>1.017634714365189</v>
+        <v>1.01736761135932</v>
       </c>
       <c r="K20">
-        <v>1.031522329081678</v>
+        <v>1.031118364216886</v>
       </c>
       <c r="L20">
-        <v>1.012663770657599</v>
+        <v>1.012443812827579</v>
       </c>
       <c r="M20">
-        <v>1.03506899379815</v>
+        <v>1.034776718158817</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036368127524457</v>
+        <v>1.036136821114536</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033438202023838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033169140784511</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020667924542075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.984780804040529</v>
+        <v>0.9846698560261872</v>
       </c>
       <c r="D21">
-        <v>1.014495659534016</v>
+        <v>1.014304795647281</v>
       </c>
       <c r="E21">
-        <v>0.9947703955459948</v>
+        <v>0.9946934867621956</v>
       </c>
       <c r="F21">
-        <v>1.017932621278843</v>
+        <v>1.017794722349726</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045793649515348</v>
+        <v>1.045697155567801</v>
       </c>
       <c r="J21">
-        <v>1.014928908627436</v>
+        <v>1.014822807484275</v>
       </c>
       <c r="K21">
-        <v>1.029207514620864</v>
+        <v>1.029020134312569</v>
       </c>
       <c r="L21">
-        <v>1.009851526369601</v>
+        <v>1.009776094923778</v>
       </c>
       <c r="M21">
-        <v>1.032582036895077</v>
+        <v>1.032446632623657</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034358860604891</v>
+        <v>1.034251696271161</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031804775569517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031689189183252</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020213226887964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9816402813599368</v>
+        <v>0.9816360088314898</v>
       </c>
       <c r="D22">
-        <v>1.012405322993187</v>
+        <v>1.012354145093446</v>
       </c>
       <c r="E22">
-        <v>0.9923387948735373</v>
+        <v>0.9923552910006396</v>
       </c>
       <c r="F22">
-        <v>1.015771677794623</v>
+        <v>1.015735153779223</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045028583267982</v>
+        <v>1.045002727402747</v>
       </c>
       <c r="J22">
-        <v>1.013207999815443</v>
+        <v>1.013203925043572</v>
       </c>
       <c r="K22">
-        <v>1.027734969706275</v>
+        <v>1.027684773452977</v>
       </c>
       <c r="L22">
-        <v>1.008063564984049</v>
+        <v>1.008079727647435</v>
       </c>
       <c r="M22">
-        <v>1.031037038356191</v>
+        <v>1.031001208837361</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03313608625257</v>
+        <v>1.033107729296507</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030750055103588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030730165591455</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019922371711196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9833026023363635</v>
+        <v>0.9832418343471231</v>
       </c>
       <c r="D23">
-        <v>1.013507126825778</v>
+        <v>1.013381779308053</v>
       </c>
       <c r="E23">
-        <v>0.9936236108060794</v>
+        <v>0.9935907394194285</v>
       </c>
       <c r="F23">
-        <v>1.016913319932574</v>
+        <v>1.01682298856321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045431836425431</v>
+        <v>1.045368485824463</v>
       </c>
       <c r="J23">
-        <v>1.014115397664133</v>
+        <v>1.014057358078388</v>
       </c>
       <c r="K23">
-        <v>1.028508943646732</v>
+        <v>1.028385938446429</v>
       </c>
       <c r="L23">
-        <v>1.009006684562836</v>
+        <v>1.00897446005868</v>
       </c>
       <c r="M23">
-        <v>1.031851774836412</v>
+        <v>1.031763116664024</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033780901931178</v>
+        <v>1.033710734266413</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031287614483255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031215295267169</v>
+      </c>
+      <c r="S23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.020074220427575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9897262240732334</v>
+        <v>0.9894501725713832</v>
       </c>
       <c r="D24">
-        <v>1.017779806600401</v>
+        <v>1.017370061470446</v>
       </c>
       <c r="E24">
-        <v>0.9986078999387826</v>
+        <v>0.9983862841861217</v>
       </c>
       <c r="F24">
-        <v>1.021345239985525</v>
+        <v>1.021048978805394</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046967100950255</v>
+        <v>1.046759714906706</v>
       </c>
       <c r="J24">
-        <v>1.017625571982348</v>
+        <v>1.017360466025362</v>
       </c>
       <c r="K24">
-        <v>1.031501721111617</v>
+        <v>1.031098854667771</v>
       </c>
       <c r="L24">
-        <v>1.012659506597919</v>
+        <v>1.012441797870764</v>
       </c>
       <c r="M24">
-        <v>1.035007599029433</v>
+        <v>1.03471626606176</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036278544337074</v>
+        <v>1.036047972428179</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033396136249522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033125170792203</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020658213922476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9969182407089408</v>
+        <v>0.996407079847084</v>
       </c>
       <c r="D25">
-        <v>1.02257752168617</v>
+        <v>1.021853083417373</v>
       </c>
       <c r="E25">
-        <v>1.004221112013122</v>
+        <v>1.00379256414511</v>
       </c>
       <c r="F25">
-        <v>1.026341880230643</v>
+        <v>1.025818596048143</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048626894334263</v>
+        <v>1.048259599315964</v>
       </c>
       <c r="J25">
-        <v>1.02154976531708</v>
+        <v>1.021055968052536</v>
       </c>
       <c r="K25">
-        <v>1.034835176658487</v>
+        <v>1.034121372240685</v>
       </c>
       <c r="L25">
-        <v>1.016754252162722</v>
+        <v>1.016332289353105</v>
       </c>
       <c r="M25">
-        <v>1.038544585572186</v>
+        <v>1.038028909340114</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039077843057633</v>
+        <v>1.038669718971506</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035750200920122</v>
+        <v>1.035259068657165</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021297665520695</v>
       </c>
     </row>
   </sheetData>
